--- a/result/生词本导入模版_9.xlsx
+++ b/result/生词本导入模版_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,130 +458,126 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>tactless</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adj. 不机智的，笨拙的： bluntly inconsiderate or indiscreet.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>tactless comments  不明智的评论</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>talisman</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>n. 护身符： something worn or kept to bring good luck or keep away evil</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A pendant of white nephrite jade is often worn by Indians as a talisman to ward off heart disease.  印度人通常戴一串软玉项链防止心脏病发作。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>taint</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vt. （品质）污损： to affect slightly with something morally bad or undesirable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>tamper</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>vi. 恶意窜改，损害： to handle thoughtlessly, ignorantly, or mischievously
 v. 玩弄： to tinker with rashly or foolishly</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>tamper with tradition  坏了规矩
 Don't tamper with my feelings.   不要玩弄我的感情。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>tangent</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>n. / adj. 离题（的），不相关（的）： diverging from an original purpose of course: irrelevant</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>tangent remarks  不相关的评论</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>tangible</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>adj. 可感知的： capable of being perceived
 adj. 确凿的， 真实的： possible to be treated as fact; real or concrete</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>tangible evidence  确凿的证据</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tangy</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>adj. 刺激的： having a powerfully stimulating odor or flavor</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>a tangy sauce with a strong aftertaste  味道很刺激的酱料，回味无穷</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tantalize</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>vt. 激起，挑逗： to excite (another) by exposing something desirable while keeping it out of reach</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>He was tantalized by the possibility of earning a lot of money quickly.   有人用迅速致富挑逗他。</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>tantamount</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>adj. 等价的，与…相等的： equivalent in value, significance, or effect</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>a relationship tantamount to marriage  到了谈婚论嫁地步的关系</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -593,17 +589,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tantrum</t>
+          <t>tangy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 勃然大怒，发脾气： a fit of bad temper</t>
+          <t>adj. 刺激的： having a powerfully stimulating odor or flavor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>had a tantrum  大发脾气</t>
+          <t>a tangy sauce with a strong aftertaste  味道很刺激的酱料，回味无穷</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -615,111 +611,111 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>tantalize</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>vt. 激起，挑逗： to excite (another) by exposing something desirable while keeping it out of reach</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>He was tantalized by the possibility of earning a lot of money quickly.   有人用迅速致富挑逗他。</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>tantamount</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adj. 等价的，与…相等的： equivalent in value, significance, or effect</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>a relationship tantamount to marriage  到了谈婚论嫁地步的关系</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tantrum</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n. 勃然大怒，发脾气： a fit of bad temper</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>had a tantrum  大发脾气</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>taper</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>vt.（使）逐渐变细： to become gradually narrower or thinner toward one end
 v. 逐渐减少，减弱： to diminish or lessen gradually</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>taper to a point  逐渐变成为一点
 The storm finally tapered off.  风暴逐渐平静了。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>tardy</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>adj. 缓慢的，迟缓的： moving slowly: sluggish
 adj. 延后的，迟的： delayed beyond the expected or proper time</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>He was tardy to work.   他做事拖拖拉拉。
 a tardy arrival  迟到</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>tarnish</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>vt. 玷污： to affect slightly with something morally bad or undesirable</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>an arrest for shoplifting tarnished her reputation  因在商店行窃被捕玷污了她的声望</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>tasty</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>adj. 美味的，令人愉悦的： giving pleasure or contentment to the mind or senses</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>the tasty prospect of getting his revenge  报仇成功的诱人前景</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>tatty</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adj. 破旧的，褴褛的： somewhat worn, shabby, or dilapidated</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>a tatty shirt  破旧的衬衣</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -729,17 +725,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>taunt</t>
+          <t>tarnish</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vt. 嘲弄性质疑，挑衅： to reproach or challenge in a mocking or insulting manner: jeer at</t>
+          <t>vt. 玷污： to affect slightly with something morally bad or undesirable</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>The boys continually taunted each other.   男孩子们互相挑衅。</t>
+          <t>an arrest for shoplifting tarnished her reputation  因在商店行窃被捕玷污了她的声望</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -751,87 +747,87 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>tasty</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>adj. 美味的，令人愉悦的： giving pleasure or contentment to the mind or senses</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>the tasty prospect of getting his revenge  报仇成功的诱人前景</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>tatty</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>adj. 破旧的，褴褛的： somewhat worn, shabby, or dilapidated</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>a tatty shirt  破旧的衬衣</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>taunt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>vt. 嘲弄性质疑，挑衅： to reproach or challenge in a mocking or insulting manner: jeer at</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The boys continually taunted each other.   男孩子们互相挑衅。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>taut</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>adj. 紧绷的： not loose or flabby
 adj. 整洁的： kept in proper order or condition, kept in trim shape; neat and tidy</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>taut muscles  紧实的肌肉
 a taunt ship  保养得不错的船</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>tawdry</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>adj. 俗丽的： cheap and gaudy in appearance or quality; ignoble</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>a tawdry attempt to smear his opponent  企图污蔑对手的下三滥的手段</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>taxing</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>adj. 繁重的，费力的： requiring much time, effort, or careful attention</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>The journey proved to be very taxing.  旅途很艰辛。</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>tedious</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>adj. 冗长乏味的： tiresome because of length or dullness: boring</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>a tedious public ceremony  冗长无聊的公开仪式</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -841,87 +837,87 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>tawdry</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>adj. 俗丽的： cheap and gaudy in appearance or quality; ignoble</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>a tawdry attempt to smear his opponent  企图污蔑对手的下三滥的手段</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>taxing</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>adj. 繁重的，费力的： requiring much time, effort, or careful attention</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>The journey proved to be very taxing.  旅途很艰辛。</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tedious</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>adj. 冗长乏味的： tiresome because of length or dullness: boring</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>a tedious public ceremony  冗长无聊的公开仪式</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>teeter</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>vi. 蹒跚，不稳定的行走： to move unsteadily: wobble
 v. 犹豫不决： to show uncertainty about the right course of action</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>She teetered down the street in her high heels.  她穿着高跟鞋，在街上摇摇欲坠。
 was teetering on the brink of making a decision about college</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>telling</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>adj. 有效的，显著的： effective, expressive</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>the most telling evidence  最有力的证据</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>temerity</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>n. 鲁莽，冒失： foolhardy disregard of danger; recklessness</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>She was punished for his temerity.   她因冒失迟到了苦头。</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>temporize</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>v. 行动躲躲闪闪以争取时间、躲避争论等： to act evasively in order to gain time, avoid argument, orpostpone a decision</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>“Colonial officials .   .   .   ordered to enforce unpopular enactments, tended to temporize, to find excuses forevasion”(J.  H.   Parry) “被命令来执行不受欢迎法案的殖民地官员们倾向于敷衍了事，去寻找逃避的理由”(J.  H.  帕里)</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -931,201 +927,201 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>telling</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>adj. 有效的，显著的： effective, expressive</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>the most telling evidence  最有力的证据</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>temerity</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>n. 鲁莽，冒失： foolhardy disregard of danger; recklessness</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>She was punished for his temerity.   她因冒失迟到了苦头。</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>temporize</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>v. 行动躲躲闪闪以争取时间、躲避争论等： to act evasively in order to gain time, avoid argument, orpostpone a decision</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>“Colonial officials .   .   .   ordered to enforce unpopular enactments, tended to temporize, to find excuses forevasion”(J.  H.   Parry) “被命令来执行不受欢迎法案的殖民地官员们倾向于敷衍了事，去寻找逃避的理由”(J.  H.  帕里)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>temperate</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>adj. 言行举止有分寸的： avoiding extremes in behavior or expression
 adj. 有节制的： given to or marked by restraint in the satisfaction of one's appetites</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>rather temperate in his appraisal of the movie, calling it good but not great  对于电影的赞赏很适度，说其“还好”而不是“很棒”
 a soft-spoken, serious-minded person of temperate habits  一个说话温和、认真严肃的人，兴趣爱好都很适度</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>tempestuous</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>adj. 突然且剧烈的变化： marked by sudden or violent disturbance</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>In terms of social change, the 1960s are generally considered the most tempestuous decade in recentAmerican history.   就社会变革来说，20 世纪 60 年代是近现代美国历史上最动荡的十年。</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>tenable</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>adj. 有据可依的，无懈可击的： capable of being held or defended; reasonable</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>a tenable theory  一个站得住脚的理论 || a tenable outpost  一个守得住的前哨</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>tenacious</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 顽固的，不屈不挠的： persistent in maintaining something valued or habitual
 adj. 粘着的： tending to adhere to objects upon contact</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>a tenacious advocate of civil rights  公民权的坚定捍卫者
 You'll have enough time getting those tenacious gum off of your wool sweater.   你有足够的时候去把羊毛毛衣上面那块粘着的泡泡糖弄下来。</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>tendentious</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>adj. 有偏见的： marked by a tendency in favor of a particular point of view: biased</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>He made some extremely tendentious remarks.  他有些评论颇具偏向性。</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>tender</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vt. 正式提出： to offer formally
 adj. 考虑周到的，关心同情的： having or marked by sympathy and consideration for others</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>tender a letter of resignation  正式提交辞职信
 an especially tender teacher who loves having kids with special educational needs in her class  特 别 无微不至的老师，爱着那些需要特别教育的孩子们</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>tenuous</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>adj. 没有实际内容的： having little substance; flimsy</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>a tenuous argument  站不住脚的论点</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>tepid</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>adj. 不太热心的： showing little or no interest or enthusiasm</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>a tepid response  冷漠的回应 || the tepid conservatism of the fifties  五十年代那种温和的保守主义</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>terminology</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>n. 专业术语： the special terms or expressions of a particular group or field</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>the terminology favored by sportscasters  体育节目转播员喜欢用的那些术语 || medical terminology thatcan be hard for the patient to understand  那些病人们难以理解的医学术语</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1135,17 +1131,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>terminus</t>
+          <t>tenuous</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>n. 终点，终点站： the final point; the end</t>
+          <t>adj. 没有实际内容的： having little substance; flimsy</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Stockholm is the terminus for the southbound train.  斯德哥尔摩是南向去的列车的终点站。</t>
+          <t>a tenuous argument  站不住脚的论点</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1157,17 +1153,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>terror</t>
+          <t>tepid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>n. 极度恐惧： a state of intense fear</t>
+          <t>adj. 不太热心的： showing little or no interest or enthusiasm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Many civilians fled in terror.   很多黎民百姓极度恐慌逃难去了。</t>
+          <t>a tepid response  冷漠的回应 || the tepid conservatism of the fifties  五十年代那种温和的保守主义</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1179,17 +1175,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>terse</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>adj. 简洁的，简明的： brief and to the point; effectively concise</t>
+          <t>n. 专业术语： the special terms or expressions of a particular group or field</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>dismissed me with a terse “no” 用一个简单的“不”把我打发了</t>
+          <t>the terminology favored by sportscasters  体育节目转播员喜欢用的那些术语 || medical terminology thatcan be hard for the patient to understand  那些病人们难以理解的医学术语</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1201,17 +1197,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>testimony</t>
+          <t>terminus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 证词，声明： firsthand authentication of a fact</t>
+          <t>n. 终点，终点站： the final point; the end</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The jury heard 10 days of testimony.   陪审团进行了 10 天的听证。</t>
+          <t>Stockholm is the terminus for the southbound train.  斯德哥尔摩是南向去的列车的终点站。</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1223,17 +1219,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>testy</t>
+          <t>terror</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>adj. 易怒的，暴躁的： easily annoyed: irritable</t>
+          <t>n. 极度恐惧： a state of intense fear</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>That coworker would be easier to get along with if she weren't so testy all the time.   如果那个同伴不是一直那么暴怒的话，她还是挺好相处的。</t>
+          <t>Many civilians fled in terror.   很多黎民百姓极度恐慌逃难去了。</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1245,245 +1241,245 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>terse</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>adj. 简洁的，简明的： brief and to the point; effectively concise</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>dismissed me with a terse “no” 用一个简单的“不”把我打发了</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>testimony</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>n. 证词，声明： firsthand authentication of a fact</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The jury heard 10 days of testimony.   陪审团进行了 10 天的听证。</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>testy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 易怒的，暴躁的： easily annoyed: irritable</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>That coworker would be easier to get along with if she weren't so testy all the time.   如果那个同伴不是一直那么暴怒的话，她还是挺好相处的。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>vt.（用绳，铁链）拴系，束缚： to fasten or restrain by or as if by a tether
 n. 能力或忍耐力的极限： the limit of one's strength or resources</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>They tethered the horses in the shade.  他们把马摔在棚子里
 drought-stricken farmers at the end of their tether  受干旱打击的农民忍无可忍</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>theatrical</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>adj. 做作的，夸张的，矫揉造作的： marked by exaggerated self-display and unnatural behavior</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>assumed a theatrical pose  摆出夸张的姿势</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>therapeutic</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>adj. 治疗的： of or relating to the treatment of disease or disorders by remedial agents or methods</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Gentle exercise can be therapeutic for hospital patients.  适量的运动对病人恢复有好处。</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>thorny</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>adj. 多刺的： full of thorns
 adj. 棘手的： full of difficulties or controversial points : ticklish</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Stay out of the thorny brambles unless you want a ton of scratches.   离那些荆棘丛远一点，除非你想满身都是窟窿。
 a thorny problem  棘手的问题</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>threadbare</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 陈腐的： overused to the point of being worn out; hackneyed
 adj. 贫穷的： lacking money or material possessions
 adj. 破烂的： worn or torn into or as if into rags</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a novel filled with nothing but threadbare clichés  一部满是陈词滥调的小说
 never knew that she had so many threadbare relatives until she won the lottery  赢 了 彩 票之 后 才知 道她有这么多穷亲戚
 I loved that threadbare shirt, but after 10 years of wear, it was time to throw it away.  我 很 喜 欢 那 件 旧旧的衬衣，但是已经穿了 10 年了，是该扔了。</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>throng</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>vi./n. 大量聚集： to crowd together in great numbers</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>commuters thronging the MTR platform  持月票的乘客拥向地铁站</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>thwart</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>vt. 阻挠： to oppose successfully</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>ticklish</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>adj. 易怒的： easily offended or upset; touchy
 adj. 棘手的，对技巧要求高的： requiring exceptional skill or caution in performance or handling</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>ticklish about his baldness  大家一提起他的秃头，他就暴怒
 Trying to tell him that his zipper is down without embarrassing him will be a ticklish task.  如 何 体 面 得体地提醒他拉链没关好是一个技巧活儿。</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>tiff</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>n./v. 小争吵： a petty quarrel</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>got into a little tiff about what color sheets to buy for their bed  对于买什么颜色的床单争吵</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>tightfisted</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>adj. 吝啬的： close-fisted; stingy</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>The company is pretty tightfisted when it comes to bonuses.  这个公司分红的时候很吝啬。</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>timeworn</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>adj. 陈腐的： hackneyed, stale</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>timeworn jokes  老掉牙的笑话</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1493,17 +1489,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>timid</t>
+          <t>tiff</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 胆小的，不自信的： lacking in courage or self-confidence</t>
+          <t>n./v. 小争吵： a petty quarrel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>He gave her a timid smile.   他给了她一个羞赧的微笑。</t>
+          <t>got into a little tiff about what color sheets to buy for their bed  对于买什么颜色的床单争吵</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1515,17 +1511,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>timorous</t>
+          <t>tightfisted</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 胆小的： of a timid disposition: fearful</t>
+          <t>adj. 吝啬的： close-fisted; stingy</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>be as timorous as a rabbit  像兔子一样胆小</t>
+          <t>The company is pretty tightfisted when it comes to bonuses.  这个公司分红的时候很吝啬。</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1537,17 +1533,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>tinge</t>
+          <t>timeworn</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vt. 给…着上少量的色彩： to color with a slight shade or stain; tint</t>
+          <t>adj. 陈腐的： hackneyed, stale</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>just slightly tinge the frosting with yellow food coloring to give it a lemony look  略微在霜糖表面加一点黄色色素，有一点柠檬的感觉就可以了</t>
+          <t>timeworn jokes  老掉牙的笑话</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1559,17 +1555,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>tinker</t>
+          <t>timid</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>vi. 乱修，乱调整： to handle thoughtlessly, ignorantly, or mischievously</t>
+          <t>adj. 胆小的，不自信的： lacking in courage or self-confidence</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>tinkering with the engine  胡乱调整发动机</t>
+          <t>He gave her a timid smile.   他给了她一个羞赧的微笑。</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1581,17 +1577,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>tint</t>
+          <t>timorous</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>v. 涂浅色，微染： apply a usually slight or pale coloration to</t>
+          <t>adj. 胆小的： of a timid disposition: fearful</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>tint with only one color  只用一种颜色染色</t>
+          <t>be as timorous as a rabbit  像兔子一样胆小</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1603,17 +1599,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tirade</t>
+          <t>tinge</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>n. 长篇抨击性演讲： a long angry or violent speech, usually of a censorious or denunciatory nature;a diatribe</t>
+          <t>vt. 给…着上少量的色彩： to color with a slight shade or stain; tint</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>a tirade of angry protest  一个表达愤怒的抗议的长篇抨击性演讲</t>
+          <t>just slightly tinge the frosting with yellow food coloring to give it a lemony look  略微在霜糖表面加一点黄色色素，有一点柠檬的感觉就可以了</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1625,17 +1621,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>toady</t>
+          <t>tinker</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>n./v. 马屁精，拍马屁： one who flatters in the hope of gaining favors</t>
+          <t>vi. 乱修，乱调整： to handle thoughtlessly, ignorantly, or mischievously</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>He criticized that I was a toady.   他批评说我是一个马屁精。</t>
+          <t>tinkering with the engine  胡乱调整发动机</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1647,17 +1643,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tonic</t>
+          <t>tint</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>adj. 滋补的，有益健康的： producing or stimulating physical, mental, or emotional vigor; beneficialto the health of body or mind</t>
+          <t>v. 涂浅色，微染： apply a usually slight or pale coloration to</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tonic medicine  补药</t>
+          <t>tint with only one color  只用一种颜色染色</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1669,111 +1665,111 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>tirade</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>n. 长篇抨击性演讲： a long angry or violent speech, usually of a censorious or denunciatory nature;a diatribe</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>a tirade of angry protest  一个表达愤怒的抗议的长篇抨击性演讲</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>toady</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>n./v. 马屁精，拍马屁： one who flatters in the hope of gaining favors</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>He criticized that I was a toady.   他批评说我是一个马屁精。</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>tonic</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adj. 滋补的，有益健康的： producing or stimulating physical, mental, or emotional vigor; beneficialto the health of body or mind</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>tonic medicine  补药</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>torpid</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>adj. 麻木的，没有知觉的： lacking in sensation or feeling
 adj. 迟钝的，行动迟缓的： slow to move or act</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>My tongue and throat remained torpid for a time following the endoscopy.   胃镜检查之后，我的舌头和喉咙一直是麻木的。
 a torpid sloth that refused to budge off its tree branch  趴在树枝上一动不动的树獭</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>torpor</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. 缺乏兴趣： lack of interest or concern
 n. （肉体或精神上的）迟钝： physical or mental inertness</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>After a lifetime of setbacks, defeats, and failures, he could only greet the latest bad news with a resignedfatalism and dull torpor.  一生都充满了挫折、失败，他只能用宿命论和麻木不仁来迎接又一次的坏消息。
 Following Thanksgiving dinner, we spent the rest of the day lounging about in a contented torpor.  吃完感恩节晚餐后，我们慵懒地靠在沙发上打发剩下的时间。</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>torrential</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>adj. 急流的： caused by or resulting from action of rapid streams</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>a torrential rain  倾盆大雨</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>tortuous</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>adj. 转弯抹角的： marked by devious or indirect tactics: crooked, tricky</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>a tortuous path  一条蜿蜒的道路</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>tout</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>vt. 极力赞扬： to promote or praise energetically; publicize</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>to tout victory in the war  鼓吹战果</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1783,17 +1779,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>torrential</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>vi. 草率或不认真地对待： to handle thoughtlessly, ignorantly, or mischievously</t>
+          <t>adj. 急流的： caused by or resulting from action of rapid streams</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>That microscope is a delicate instrument, not something to be toyed with.   那个显微镜是精密仪器，不是随随便便的一个玩具。</t>
+          <t>a torrential rain  倾盆大雨</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1805,17 +1801,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>tractable</t>
+          <t>torrid</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 易驾驭的，温顺的： readily giving in to the command or authority of another</t>
+          <t>adj. 酷热的： intensely hot
+adj. 热情的，情感深厚的： having or expressing great depth of feeling</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>a tractable horse  一匹温顺的马</t>
+          <t>the dry, torrid summers in southern Arizona  南亚利桑那州干燥、炎热的夏天
+torrid love affair  炙热的爱</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1827,17 +1825,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tranquility</t>
+          <t>tortuous</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>n. 宁静，淡定： a state of freedom from storm or disturbance</t>
+          <t>adj. 转弯抹角的： marked by devious or indirect tactics: crooked, tricky</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>enjoyed the tranquillity of the snow-covered field at dusk  享受傍晚时分被雪覆盖的田野的静谧</t>
+          <t>a tortuous path  一条蜿蜒的道路</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1849,17 +1847,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>transcend</t>
+          <t>tout</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vt. 超越，超过极限： to rise above or go beyond the limits of</t>
+          <t>vt. 极力赞扬： to promote or praise energetically; publicize</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>a person who believes that any true understanding of God transcends human intelligence  认 为 对 上 帝的真正理解是超越人类智商极限的人</t>
+          <t>to tout victory in the war  鼓吹战果</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1871,17 +1869,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>transfigure</t>
+          <t>toy</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>vt. 改变外观： to alter the outward appearance of; transform</t>
+          <t>vi. 草率或不认真地对待： to handle thoughtlessly, ignorantly, or mischievously</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>transfigure the AutoCAD drawings with elegant symbols  用优美的符号使 AutoCAD  图变得美观</t>
+          <t>That microscope is a delicate instrument, not something to be toyed with.   那个显微镜是精密仪器，不是随随便便的一个玩具。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1893,17 +1891,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>transgress</t>
+          <t>tractable</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>vt. 违背，犯错： to fail to keep; to commit an offense</t>
+          <t>adj. 易驾驭的，温顺的： readily giving in to the command or authority of another</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>don't even think about transgressing the drug laws of that Asian country, for punishments are severe andthere's nothing that our government can do to intervene  别指望违背亚洲国家的药品相关法，因为惩罚非常严厉，政府会尽全力干涉</t>
+          <t>a tractable horse  一匹温顺的马</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1915,17 +1913,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>transient</t>
+          <t>tranquility</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>adj. 短暂的，瞬时的： passing with time; transitory</t>
+          <t>n. 宁静，淡定： a state of freedom from storm or disturbance</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>transient pleasure  短暂的快乐</t>
+          <t>enjoyed the tranquillity of the snow-covered field at dusk  享受傍晚时分被雪覆盖的田野的静谧</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1937,17 +1935,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>transitory</t>
+          <t>transcend</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>adj. 短暂的： existing or lasting only a short time; short-lived or temporary</t>
+          <t>vt. 超越，超过极限： to rise above or go beyond the limits of</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>most of life’s joys are transitory  尘世间的欢乐都是过眼烟云，转瞬即逝</t>
+          <t>a person who believes that any true understanding of God transcends human intelligence  认 为 对 上 帝的真正理解是超越人类智商极限的人</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1959,17 +1957,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>translucent</t>
+          <t>transfigure</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>adj. 透明的： permitting the passage of light: clear, transparent</t>
+          <t>vt. 改变外观： to alter the outward appearance of; transform</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>translucent dewdrop  透明的露珠</t>
+          <t>transfigure the AutoCAD drawings with elegant symbols  用优美的符号使 AutoCAD  图变得美观</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1981,106 +1979,106 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>transgress</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>vt. 违背，犯错： to fail to keep; to commit an offense</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>don't even think about transgressing the drug laws of that Asian country, for punishments are severe andthere's nothing that our government can do to intervene  别指望违背亚洲国家的药品相关法，因为惩罚非常严厉，政府会尽全力干涉</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>transient</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>adj. 短暂的，瞬时的： passing with time; transitory</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>transient pleasure  短暂的快乐</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>transitory</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>adj. 短暂的： existing or lasting only a short time; short-lived or temporary</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>most of life’s joys are transitory  尘世间的欢乐都是过眼烟云，转瞬即逝</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>translucent</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 透明的： permitting the passage of light: clear, transparent</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>translucent dewdrop  透明的露珠</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>transparent</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>adj. 透明的： capable of transmitting light
 adj. 没有歧义，清晰易懂的： not subject to misinterpretation or more than one interpretation</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>His meaning in leaving the conversation is transparent: he doesn't want to talk about his combatexperiences.   他结束这个话题的意图很明显：不想谈论当年参战的事。</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>travail</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>n./v. 辛苦劳动： work, especially when arduous or involving painful effort</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>writer’s literary travail  作家辛勤的文学创作 || Labor Day is the day on which we recognize those menand women who daily travail with little appreciation or compensation.  劳动节是我们向那些平日辛勤劳作但是很少受到大家关注和补偿的工人致敬的日子。</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>traverse</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>vt. 横穿： to travel or pass across, over, or through</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>The spider traversed the wall from end to end.   蜘蛛侠攀岩走壁。</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>travesty</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>n./v. 拙劣的、嘲弄性模仿： an exaggerated or grotesque imitation, such as a parody of a literary work</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>a travesty of his classmate’s manner  滑稽的模仿其他同学的举止</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>treacherous</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>adj. 背叛的： marked by betrayal of fidelity, confidence, or trust</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>a treacherous ally  不忠的盟友</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2092,109 +2090,109 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>travail</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>n./v. 辛苦劳动： work, especially when arduous or involving painful effort</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>writer’s literary travail  作家辛勤的文学创作 || Labor Day is the day on which we recognize those menand women who daily travail with little appreciation or compensation.  劳动节是我们向那些平日辛勤劳作但是很少受到大家关注和补偿的工人致敬的日子。</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>traverse</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>vt. 横穿： to travel or pass across, over, or through</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>The spider traversed the wall from end to end.   蜘蛛侠攀岩走壁。</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>travesty</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>n./v. 拙劣的、嘲弄性模仿： an exaggerated or grotesque imitation, such as a parody of a literary work</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>a travesty of his classmate’s manner  滑稽的模仿其他同学的举止</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>treacherous</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>adj. 背叛的： marked by betrayal of fidelity, confidence, or trust</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>a treacherous ally  不忠的盟友</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>trenchant</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. 锐利的： keen, sharp
 adj. （言辞）一针见血的： vigorously effective and articulate</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Even the most trenchant sword could not sever the bonds of loyalty between them.  即 使 最 锋 利 的 刀剑也不能切断他们的忠诚。
 trenchant criticisms  一针见血的批评</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>trepidation</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>n. 恐惧，战栗： the emotion experienced in the presence or threat of danger; apprehension</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>trepidation about starting a new career  对开创一项新事业而感到恐惧</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>trespass</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>vi. 非法侵入，违反： to commit an offense</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>I consider him to be trespassing against all of us when he trespasses against any one of us.  当 他 冒犯我们当中一个人的时候，他就冒犯了我们全部</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>tribute</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>n. 颂词： a gift, payment, declaration, or other acknowledgment of gratitude, respect, or admiration</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>pay a high tribute to… 赞颂</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>trickle</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>vi. 一滴滴地流，徐徐地流： to issue or fall in drops</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Tears trickled down her cheeks.   眼泪从她的脸上一滴一滴地流下。</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2204,17 +2202,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>trite</t>
+          <t>trepidation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>adj. 陈腐的，陈词滥调的： hackneyed or boring from much use, not fresh or original</t>
+          <t>n. 恐惧，战栗： the emotion experienced in the presence or threat of danger; apprehension</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>“You win some, you lose some” is a trite expression.  “有得必有失”是老生常谈了。</t>
+          <t>trepidation about starting a new career  对开创一项新事业而感到恐惧</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2226,17 +2224,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>trespass</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>adj. 琐碎的，无足轻重的： of little worth or importance</t>
+          <t>vi. 非法侵入，违反： to commit an offense</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>why spend so much time on trivial decisions, like whether the cola should be regular or diet?为 什 么</t>
+          <t>I consider him to be trespassing against all of us when he trespasses against any one of us.  当 他 冒犯我们当中一个人的时候，他就冒犯了我们全部</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2248,17 +2246,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>truant</t>
+          <t>tribute</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>adj./ n./ vi. 逃避责任的： shirking responsibility; one who shirks duty</t>
+          <t>n. 颂词： a gift, payment, declaration, or other acknowledgment of gratitude, respect, or admiration</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>play truant  逃学</t>
+          <t>pay a high tribute to… 赞颂</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2270,17 +2268,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>truce</t>
+          <t>trickle</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>n. 休战，休战协定： a suspension of fighting especially of considerable duration by agreement ofopposing forces</t>
+          <t>vi. 一滴滴地流，徐徐地流： to issue or fall in drops</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>truce agreement  休战协议</t>
+          <t>Tears trickled down her cheeks.   眼泪从她的脸上一滴一滴地流下。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2292,109 +2290,109 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>trite</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 陈腐的，陈词滥调的： hackneyed or boring from much use, not fresh or original</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>“You win some, you lose some” is a trite expression.  “有得必有失”是老生常谈了。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>trivial</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>adj. 琐碎的，无足轻重的： of little worth or importance</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>why spend so much time on trivial decisions, like whether the cola should be regular or diet?为 什 么</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>truant</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>adj./ n./ vi. 逃避责任的： shirking responsibility; one who shirks duty</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>play truant  逃学</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>truce</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>n. 休战，休战协定： a suspension of fighting especially of considerable duration by agreement ofopposing forces</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>truce agreement  休战协议</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>truculent</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>adj. 尖酸刻薄的： marked by harsh insulting language
 adj. 好战的： feeling or displaying eagerness to fight</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>a theater critic who was notorious for his titanically truculent reviews  一个以超大量尖酸刻薄言论著称的话剧评论家
 in an aggressively truculent manner  以好战的，进攻性的方式</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>trudge</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>vi. 吃力而笨拙地走： to move heavily or clumsily</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>trudge over hill  翻山越岭</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>trumpet</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>v. 大声说出或宣告： to make known openly or publicly本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>The losing party lost no time in trumpeting allegations of election fraud.   落败的政党马不停蹄地开始公开宣称选举存在作假。</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>truncate</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>v. 截短（时间，程度）： to shorten by or as if by cutting off</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>a truncated version of the 11 o'clock newscast followed the awards show, which ran over its time slot  颁奖典礼之后缩短版的 11 点新闻节目，已经超出了预定时长</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>truss</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>v. 系紧，扎紧： to gather into a tight mass by means of a line or cord</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>After stuffing the turkey, the chef quickly trussed it so the forcemeat wouldn't fall out during roasting.   把填料塞进火鸡后，大厨迅速把它扎紧防止在烘烤过程中肉馅掉出来。</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2404,17 +2402,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tumult</t>
+          <t>trudge</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 骚动，暴动： a disorderly commotion or disturbance, a riot</t>
+          <t>vi. 吃力而笨拙地走： to move heavily or clumsily</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>His mind was in a tumult.  他心烦意乱。</t>
+          <t>trudge over hill  翻山越岭</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2426,19 +2424,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>turbid</t>
+          <t>trumpet</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 混浊的： deficient in clarity or purity</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>a turbid stream  一条混浊的河</t>
-        </is>
-      </c>
+          <t>v. 大声说出或宣告： to make known openly or publicly</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2448,109 +2442,109 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>truncate</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>v. 截短（时间，程度）： to shorten by or as if by cutting off</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>a truncated version of the 11 o'clock newscast followed the awards show, which ran over its time slot  颁奖典礼之后缩短版的 11 点新闻节目，已经超出了预定时长</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>truss</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>v. 系紧，扎紧： to gather into a tight mass by means of a line or cord</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>After stuffing the turkey, the chef quickly trussed it so the forcemeat wouldn't fall out during roasting.   把填料塞进火鸡后，大厨迅速把它扎紧防止在烘烤过程中肉馅掉出来。</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>tumult</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>n. 骚动，暴动： a disorderly commotion or disturbance, a riot</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>His mind was in a tumult.  他心烦意乱。</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>turbid</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>adj. 混浊的： deficient in clarity or purity</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>a turbid stream  一条混浊的河</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>turbulent</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 动荡的： marked by sudden or violent disturbance
 adj. 湍急的，汹涌的： marked by turmoil or disturbance especially of natural elements</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>a turbulent period in history  历史上动荡时期
 the turbulent rapids of the river were certainly daunting to those of us who were new to river rafting  湍急的流水必定让那些初玩漂流的人们吓得不轻</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>turgid</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>adj. 浮夸的，过分装饰的： excessively embellished in style or language</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>turgid prose  浮华的散文</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>turmoil</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>n. 骚动，混乱： a state or condition of extreme confusion, agitation, or commotion</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>My mind is in a turmoil.   我心里很乱。</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>turncoat</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>n. 叛徒： one who switches to an opposing side or party; specifically: traitor</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>He was labeled as a turncoat.   他是一个叛徒。</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>typo</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>n. 打字错误： an error in typed or typeset material</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>make one typo on the memo  在样张上打错一个字</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2560,17 +2554,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>tyro</t>
+          <t>turgid</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 新手，业余爱好者： a beginner in learning: novice</t>
+          <t>adj. 浮夸的，过分装饰的： excessively embellished in style or language</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>a tyro in the art of piano  钢琴界的新手</t>
+          <t>turgid prose  浮华的散文</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2582,17 +2576,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>unassailable</t>
+          <t>turmoil</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adj. 无可争辩的，无法否认的，不可亵渎的： not to be violated, criticized, or tampered with</t>
+          <t>n. 骚动，混乱： a state or condition of extreme confusion, agitation, or commotion</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>an unassailable article  无可争辩的文章</t>
+          <t>My mind is in a turmoil.   我心里很乱。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2604,17 +2598,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>uncanny</t>
+          <t>turncoat</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 离奇的，奇异的： being so extraordinary or abnormal as to suggest powers which violate thelaws of nature</t>
+          <t>n. 叛徒： one who switches to an opposing side or party; specifically: traitor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>The silence was uncanny.   静得出奇</t>
+          <t>He was labeled as a turncoat.   他是一个叛徒。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2626,17 +2620,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>uncouth</t>
+          <t>typo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adj. 粗俗的，没有品位的： lacking in refinement or good taste</t>
+          <t>n. 打字错误： an error in typed or typeset material</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>the movie's uncouth humor seemed to be purposely offensive  电影里一些恶俗的幽默貌似是故意的</t>
+          <t>make one typo on the memo  在样张上打错一个字</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2648,131 +2642,131 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>tyro</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>n. 新手，业余爱好者： a beginner in learning: novice</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>a tyro in the art of piano  钢琴界的新手</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ubiquitous</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>adj. 无所不在的，普通的： being everywhere at the same time; often observed or encountered</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The conflict between opposites is ubiquitous.   对立的冲突无所不在。</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>unassailable</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>adj. 无可争辩的，无法否认的，不可亵渎的： not to be violated, criticized, or tampered with</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>an unassailable article  无可争辩的文章</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>uncanny</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>adj. 离奇的，奇异的： being so extraordinary or abnormal as to suggest powers which violate thelaws of nature</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>The silence was uncanny.   静得出奇</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>uncouth</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>adj. 粗俗的，没有品位的： lacking in refinement or good taste</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>the movie's uncouth humor seemed to be purposely offensive  电影里一些恶俗的幽默貌似是故意的</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>unctuous</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>adj. 油嘴滑舌的，谄媚的： overly or insincerely flattering
 adj. 夸张的，做作的： characterized by affected, exaggerated, or insincere earnestness</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>an unctuous appraisal of the musical talent shown by the boss's daughter  拍老板马屁，说他女儿音乐剧的才能非常卓越
 an unctuous effort to appear religious to the voters  过分做作想在选民面前表现地虔诚</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>underdog</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>n. 受害者，输家： a loser/ victim or predicted loser in a struggle or contest</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>She always supports for the underdog.  她经常支持受害者。</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>undergird</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>vt. 加强，巩固…的底部： to support or strengthen from beneath</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>facts and statistics undergird his commentary  事实和数据支持了他的评论</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>undermine</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>vt. 削弱，破坏： to weaken, injure, or impair, often by degrees or imperceptibly</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>undermine a fortress  挖地道破坏堡垒</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>underscore</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>vt. 强调： to emphasize; stress</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>underscore the value of education  强调教育的重要性</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>understate</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>vt. 保守陈述： to state or present with restraint especially for effect</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>understate a problem  低调处理问题</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2782,17 +2776,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>understudy</t>
+          <t>underdog</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>n. 替补演员： one who is prepared to act another's part or take over another's duties</t>
+          <t>n. 受害者，输家： a loser/ victim or predicted loser in a struggle or contest</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>be an understudy to sb  作为某人的替补</t>
+          <t>She always supports for the underdog.  她经常支持受害者。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2804,15 +2798,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>unexceptionable</t>
+          <t>undergird</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>adj. 无懈可击的： not open to objection or criticism, beyond reproach</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
+          <t>vt. 加强，巩固…的底部： to support or strengthen from beneath</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>facts and statistics undergird his commentary  事实和数据支持了他的评论</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2822,17 +2820,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>unflappable</t>
+          <t>undermine</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>adj. 镇定的，从容不迫的： not easily upset or excited</t>
+          <t>vt. 削弱，破坏： to weaken, injure, or impair, often by degrees or imperceptibly</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>a unflappable general  一个镇定的将军</t>
+          <t>undermine a fortress  挖地道破坏堡垒</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2844,17 +2842,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ungainly</t>
+          <t>underscore</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>adj. 笨拙的，不雅的： having or showing an inability to move in a graceful manner</t>
+          <t>vt. 强调： to emphasize; stress</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ungainly movements  笨拙的动作</t>
+          <t>underscore the value of education  强调教育的重要性</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2866,17 +2864,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>unimpeachable</t>
+          <t>understate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>adj. 无可置疑的： beyond doubt; unquestionable</t>
+          <t>vt. 保守陈述： to state or present with restraint especially for effect</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>An unimpeachable evidence  无可置疑的证据</t>
+          <t>understate a problem  低调处理问题</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2888,17 +2886,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>unkempt</t>
+          <t>understudy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 凌乱的，无序的： lacking in order, neatness, and often cleanliness</t>
+          <t>n. 替补演员： one who is prepared to act another's part or take over another's duties</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>unkempt hotel rooms  凌乱的酒店房间</t>
+          <t>be an understudy to sb  作为某人的替补</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2910,19 +2908,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>unlettered</t>
+          <t>unexceptionable</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. 未受教育的，文盲的： not adept at reading and writing; deficient in the knowledge that can beacquired from books. illiterate</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>unlettered sector of society  未受教育的地区</t>
-        </is>
-      </c>
+          <t>adj. 无懈可击的： not open to objection or criticism, beyond reproach</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2932,19 +2926,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>unpretentious</t>
+          <t>unflappable</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 低调的，谦逊的： lacking pretension or affectation; modest
-adj. 坦诚的，自然的： free from any intent to deceive or impress others</t>
+          <t>adj. 镇定的，从容不迫的： not easily upset or excited</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>an unpretentious virtuoso  一位谦虚的大师
-a simple and unpretentious account about growing up in the rural South  一段简单坦率的关于在南部乡村成长经历的叙述</t>
+          <t>a unflappable general  一个镇定的将军</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2956,17 +2948,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>unproductive</t>
+          <t>ungainly</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 徒然的，无效的： not productive; idle</t>
+          <t>adj. 笨拙的，不雅的： having or showing an inability to move in a graceful manner</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>her attempts to write a novel have been unproductive  她一直想写本小说的努力只是徒然</t>
+          <t>ungainly movements  笨拙的动作</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2978,17 +2970,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>unrequited</t>
+          <t>unimpeachable</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 无报答的，无报酬的： not reciprocated or returned in kind</t>
+          <t>adj. 无可置疑的： beyond doubt; unquestionable</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>unrequited love  无报答的爱</t>
+          <t>An unimpeachable evidence  无可置疑的证据</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3000,17 +2992,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>unruly</t>
+          <t>unkempt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 难驾驭的，不守规矩的： difficult or impossible to discipline, control, or rule.</t>
+          <t>adj. 凌乱的，无序的： lacking in order, neatness, and often cleanliness</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>an unruly child  一个不听话的孩子</t>
+          <t>unkempt hotel rooms  凌乱的酒店房间</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3022,17 +3014,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>untenable</t>
+          <t>unlettered</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 防守不住的，站不住脚的： not able to be defended</t>
+          <t>adj. 未受教育的，文盲的： not adept at reading and writing; deficient in the knowledge that can beacquired from books. illiterate</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>an untenable position  一个站不住脚的立场</t>
+          <t>unlettered sector of society  未受教育的地区</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3044,17 +3036,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>untold</t>
+          <t>unpretentious</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 数不清的，无数的： too great or numerous to count</t>
+          <t>adj. 低调的，谦逊的： lacking pretension or affectation; modest</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>untold wealth  不知其数的财富</t>
+          <t>an unpretentious virtuoso  一位谦虚的大师</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3066,17 +3058,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>untoward</t>
+          <t>unproductive</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 倒霉的，不吉利的： not favorable, unpropitious</t>
+          <t>adj. 徒然的，无效的： not productive; idle</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>an untoward incident  不幸的事故</t>
+          <t>her attempts to write a novel have been unproductive  她一直想写本小说的努力只是徒然</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3088,131 +3080,131 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>unrequited</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>adj. 无报答的，无报酬的： not reciprocated or returned in kind</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>unrequited love  无报答的爱</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>unruly</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>adj. 难驾驭的，不守规矩的： difficult or impossible to discipline, control, or rule.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>an unruly child  一个不听话的孩子</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>untenable</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>adj. 防守不住的，站不住脚的： not able to be defended</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>an untenable position  一个站不住脚的立场</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>untold</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>adj. 数不清的，无数的： too great or numerous to count</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>untold wealth  不知其数的财富</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>untoward</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>adj. 倒霉的，不吉利的： not favorable, unpropitious</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>an untoward incident  不幸的事故</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>unwitting</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>adj. 不知道的，未觉察的： not knowing, unaware
 adj. 偶然的，并非有意的： happening by chance; not intended</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Please forgive my unwitting interruption of your conversation.  请原谅我无意间打断了你们的谈话。
 an unwitting mistake made in copying the material  在打印过程中一个无心的过失</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>unwonted</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>adj. 不习惯的，不寻常的： not habitual or ordinary; unusual</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>honored for the unwonted courage he showed in battle  因在战争中表现出的过人的勇气受到嘉奖</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>upbraid</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>vt.（严厉地）谴责，责骂： to reproach severely</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>upbraid sb.   with his ingratitude  责备某人忘恩负义</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>uphold</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>vt. 支持，赞成： to give support to</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>determined to uphold her views in the face of all challenges  下定决心支持她的观点，尽管全世界都反对她</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>urbane</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>adj. 彬彬有礼的，文雅的： notably polite or finished in manner</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>a gentlemanly and urbane host of elegant dinner parties  优雅晚宴的主人有绅士风度，彬彬有礼</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>usurp</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>vt. 篡夺，篡位： to seize and hold (the power or rights of another, for example) by force and withoutlegal authority</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>usurp the throne  篡夺王位</t>
-        </is>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3222,467 +3214,459 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>unwonted</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>adj. 不习惯的，不寻常的： not habitual or ordinary; unusual</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>honored for the unwonted courage he showed in battle  因在战争中表现出的过人的勇气受到嘉奖</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>upbraid</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>vt.（严厉地）谴责，责骂： to reproach severely</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>upbraid sb.   with his ingratitude  责备某人忘恩负义</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>uphold</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>vt. 支持，赞成： to give support to</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>determined to uphold her views in the face of all challenges  下定决心支持她的观点，尽管全世界都反对她</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>urbane</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>usurp</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>vt. 篡夺，篡位： to seize and hold (the power or rights of another, for example) by force and withoutlegal authority</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>usurp the throne  篡夺王位</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
           <t>utter</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>vt. 出声，说话： to articulate (words); pronounce or speak
 adj. 完全的，绝对的： complete; absolute; entire</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>She tried not to utter a sound as the doctor gave her a flu shot.   她克制自己不在打针的时候喊出来。
 be at an utter loss what to do  完全不知道怎样才好</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
         <is>
           <t>vaccinate</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>v. 预防接种： to inoculate with a vaccine in order to produce immunity to an infectious disease, suchas diphtheria or typhus</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>vaccinate sb.   for smallpox  为某人接种牛痘疫苗以防天花</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>vacillate</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>vi. 犹豫不决： to waver in mind, will, or feeling: hesitate in choice of opinions or courses
 vi. 摇动，摇摆： to sway from one side to the other; oscillate</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Parents vacillate between saying no and yes, but actually neither response seems satisfactory to their children.   父母总是犹豫不定，不知道是该同意还是该反对，但是事实上哪种答案对他们的孩子都不理想。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>vacuous</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>adj. 茫然的，愚蠢的： marked by lack of ideas or intelligence</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>a movie that was derided for its vacuous dialogue  一部因为对白十分愚蠢而被嘲讽的电影</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>vagary</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>n. 不可预测的思想或行为： an erratic, unpredictable, or extravagant manifestation, action, or notion</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>vague</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 表达不清的： not clearly expressed
 adj. 轮廓不清晰的： lacking definite shape, form, or character</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>The diplomat gave as vague a reply as he could at the press conference.   外交官在记者招待会上尽其所能来含糊其辞。
 the vague outline of a building through the dense fog  浓雾中建筑物模糊的轮廓</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>valediction</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>n. 告别： an act of bidding farewell
 n. 告别词： an address or statement of farewell or leave-taking</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>a valediction given by the college president upon his retirement  大学校长退休时的告别演说</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>valiant</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 勇敢的，英勇的： possessing or acting with bravery or boldness</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">a valiant and moral knight  一个勇敢和有道德感的骑士
 Despite their valiant efforts, they lost the game.  </t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>valid</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adj. 逻辑上正确的： logically correct</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Only further experiments will show whether your theory is valid.   只有进一步的实验才能验证你的理论是否正确。
 Your argument isn't valid because you're taking what should be the conclusion and using it as apremise.   你的论述逻辑上是错误的，因为你把本该是结论的东西当成了前提条件。</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>vanquish</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>vt. 打败，征服： to defeat in a conflict or contest</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>vanquished his inner fear  战胜了他内心的恐惧</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>vapid</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>adj. 无趣的，乏味的： lacking liveliness, animation, or interest</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>a song with vapid lyrics  一首歌词乏味的歌曲</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>vaporize</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>vt. 使（液体）蒸发： to convert (as by the application of heat or by spraying) into vapor
 vt. 彻底消灭： to destroy by or as if by converting into vapor</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>gasify
 The entire fleet was vaporized.   整个舰队都被消灭了。</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>variance</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>n. 不一致，不和谐： a lack of agreement or harmony</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>Persistent variance within the band eventually caused it to break up.   乐团中持续不断的分歧最终导致了它的解散。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>variegated</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>adj. 杂色的，斑驳的： having discrete markings of different colors</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>variegated costumes of the dancers in the nightclub  夜总会舞者身上色彩斑驳的服装</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>varnish</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vt. 上清漆，使有光泽： to give a smooth and glossy finish to</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>Don't sit on that chair - I've just varnished it.   不要坐在那张椅子上——我刚刚上过漆。</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>vault</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>vi. 跳起，跳跃： to propel oneself upward or forward into the air
 vi. 一跃而至： to accomplish something as if by leaping suddenly or vigorously</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The horse vaulted over the obstacle with ease.  骏马轻松地跃过障碍物。
 She vaulted into a position of wealth.   她一夜暴富。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>vaunt</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>vi. 吹嘘： to speak boastfully</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>vaunted his country’s military might  吹嘘他的国家的军事实力</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>veer</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>v. 转向，改变航线： to change direction or course</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>He veered the car abruptly to the right to avoid a collision.   他向右猛打方向盘以避免撞击</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>vehement</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>adj. （情感）强烈的，热情的： having or expressing great depth of feeling</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>a vehement defender of the rights of minorities  一个立场强烈的少数民族维权者</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>venal</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>adj. 容易贪污受贿的： open to corrupt influence and especially bribery</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">a judge who is known for being venal and easily bought  一名因为贪污和容易收买而闻名的法官Made By Jason &amp; Franklin.   This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.  </t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>vendor</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>n. 小贩，商贩： one that sells or vends</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>We're thinking of making a deal with that other software vendor.   我们在考虑和那个软件供应商的交易。</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3692,132 +3676,195 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
+          <t>vaunt</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>vi. 吹嘘： to speak boastfully</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>vaunted his country’s military might  吹嘘他的国家的军事实力</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>veer</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>v. 转向，改变航线： to change direction or course</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>He veered the car abruptly to the right to avoid a collision.   他向右猛打方向盘以避免撞击</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>vehement</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>adj. （情感）强烈的，热情的： having or expressing great depth of feeling</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>a vehement defender of the rights of minorities  一个立场强烈的少数民族维权者</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>venal</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>adj. 容易贪污受贿的： open to corrupt influence and especially bribery</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>a judge who is known for being venal and easily bought  一名因为贪污和容易收买而闻名的法官</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>vendor</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>n. 小贩，商贩： one that sells or vends</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>We're thinking of making a deal with that other software vendor.   我们在考虑和那个软件供应商的交易。</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>veneer</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>n. 薄木板，用以贴在家具外面的饰面板： a thin surface layer, as of finely grained wood, glued to abase of inferior material
 vt. 粉饰（不好的东西）： to cover over with a veneer; especially to conceal (as a defect of character)under a superficial and deceptive attractiveness</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>venerate</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>vt. 尊敬： to regard with reverential respect or with admiring deference</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>She is venerated by the public as a saint.   她被当作圣人，受万众景仰。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>venial</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>adj. 可宽恕的： easily excused or forgiven</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Taking the restaurant's menu as a souvenir seems like a venial offense.   把餐厅的菜单当成纪念品带走似乎是一个可以宽恕的罪行。</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>venom</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 毒液： poisonous matter normally secreted by some animals as snakes, scorpions, or bees
 n. 恶意，恶毒的用心： the desire to cause pain for the satisfaction of doing harm</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>an antidote to snake venom  蛇毒的解药
 She spoke of him with venom in her voice.  她的评论怀揣着恶意。</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>veracious</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>adj. 诚实的，说实话的： being in the habit of telling the truth
-adj. 精确的，准确的： precise, accurate</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>a veracious witness  诚实的证人
-He has a reputation for being veracious, so people generally takehis word for things.  他诚实的名声让其他人通常都相信他说的话
-a novel that presents a fairly veracious and unvarnished picture of the lives of affluent suburbanites  一部准确而不加修饰地描述郊区富人生活的小说</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>verbatim</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>adv. 逐字地，一字不差地： in the exact words</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>You can't just copy the encyclopedia article verbatim for your report - that's plagiarism.   你 不 能 一 字 不 差地抄百科全书上的内容——这是剽窃。</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_9.xlsx
+++ b/result/生词本导入模版_9.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,41 +422,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>tactless</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>adj. 不机智的，笨拙的： bluntly inconsiderate or indiscreet.</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tactless comments  不明智的评论</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tactless</t>
+          <t>talisman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 不机智的，笨拙的： bluntly inconsiderate or indiscreet.</t>
+          <t>n. 护身符： something worn or kept to bring good luck or keep away evil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tactless comments  不明智的评论</t>
+          <t>A pendant of white nephrite jade is often worn by Indians as a talisman to ward off heart disease.  印度人通常戴一串软玉项链防止心脏病发作。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,19 +468,15 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>talisman</t>
+          <t>taint</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 护身符： something worn or kept to bring good luck or keep away evil</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A pendant of white nephrite jade is often worn by Indians as a talisman to ward off heart disease.  印度人通常戴一串软玉项链防止心脏病发作。</t>
-        </is>
-      </c>
+          <t>vt. （品质）污损： to affect slightly with something morally bad or undesirable</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -502,15 +486,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>taint</t>
+          <t>tamper</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vt. （品质）污损： to affect slightly with something morally bad or undesirable</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>vi. 恶意窜改，损害： to handle thoughtlessly, ignorantly, or mischievously
+v. 玩弄： to tinker with rashly or foolishly</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>tamper with tradition  坏了规矩
+Don't tamper with my feelings.   不要玩弄我的感情。</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -520,19 +510,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tamper</t>
+          <t>tangent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vi. 恶意窜改，损害： to handle thoughtlessly, ignorantly, or mischievously
-v. 玩弄： to tinker with rashly or foolishly</t>
+          <t>n. / adj. 离题（的），不相关（的）： diverging from an original purpose of course: irrelevant</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>tamper with tradition  坏了规矩
-Don't tamper with my feelings.   不要玩弄我的感情。</t>
+          <t>tangent remarks  不相关的评论</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -544,17 +532,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tangent</t>
+          <t>tangible</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. / adj. 离题（的），不相关（的）： diverging from an original purpose of course: irrelevant</t>
+          <t>adj. 可感知的： capable of being perceived
+adj. 确凿的， 真实的： possible to be treated as fact; real or concrete</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tangent remarks  不相关的评论</t>
+          <t>tangible evidence  确凿的证据</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,18 +555,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tangible</t>
+          <t>tangy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>adj. 可感知的： capable of being perceived
-adj. 确凿的， 真实的： possible to be treated as fact; real or concrete</t>
+          <t>adj. 刺激的： having a powerfully stimulating odor or flavor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>tangible evidence  确凿的证据</t>
+          <t>a tangy sauce with a strong aftertaste  味道很刺激的酱料，回味无穷</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -589,17 +577,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tangy</t>
+          <t>tantalize</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 刺激的： having a powerfully stimulating odor or flavor</t>
+          <t>vt. 激起，挑逗： to excite (another) by exposing something desirable while keeping it out of reach</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a tangy sauce with a strong aftertaste  味道很刺激的酱料，回味无穷</t>
+          <t>He was tantalized by the possibility of earning a lot of money quickly.   有人用迅速致富挑逗他。</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -611,17 +599,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tantalize</t>
+          <t>tantamount</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>vt. 激起，挑逗： to excite (another) by exposing something desirable while keeping it out of reach</t>
+          <t>adj. 等价的，与…相等的： equivalent in value, significance, or effect</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>He was tantalized by the possibility of earning a lot of money quickly.   有人用迅速致富挑逗他。</t>
+          <t>a relationship tantamount to marriage  到了谈婚论嫁地步的关系</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -633,17 +621,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tantamount</t>
+          <t>tantrum</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>adj. 等价的，与…相等的： equivalent in value, significance, or effect</t>
+          <t>n. 勃然大怒，发脾气： a fit of bad temper</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>a relationship tantamount to marriage  到了谈婚论嫁地步的关系</t>
+          <t>had a tantrum  大发脾气</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -655,17 +643,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tantrum</t>
+          <t>taper</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>n. 勃然大怒，发脾气： a fit of bad temper</t>
+          <t>vt.（使）逐渐变细： to become gradually narrower or thinner toward one end
+v. 逐渐减少，减弱： to diminish or lessen gradually</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>had a tantrum  大发脾气</t>
+          <t>taper to a point  逐渐变成为一点
+The storm finally tapered off.  风暴逐渐平静了。</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -677,19 +667,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>taper</t>
+          <t>tardy</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>vt.（使）逐渐变细： to become gradually narrower or thinner toward one end
-v. 逐渐减少，减弱： to diminish or lessen gradually</t>
+          <t>adj. 缓慢的，迟缓的： moving slowly: sluggish
+adj. 延后的，迟的： delayed beyond the expected or proper time</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>taper to a point  逐渐变成为一点
-The storm finally tapered off.  风暴逐渐平静了。</t>
+          <t>He was tardy to work.   他做事拖拖拉拉。
+a tardy arrival  迟到</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -701,19 +691,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tardy</t>
+          <t>tarnish</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adj. 缓慢的，迟缓的： moving slowly: sluggish
-adj. 延后的，迟的： delayed beyond the expected or proper time</t>
+          <t>vt. 玷污： to affect slightly with something morally bad or undesirable</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>He was tardy to work.   他做事拖拖拉拉。
-a tardy arrival  迟到</t>
+          <t>an arrest for shoplifting tarnished her reputation  因在商店行窃被捕玷污了她的声望</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -725,17 +713,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tarnish</t>
+          <t>tasty</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vt. 玷污： to affect slightly with something morally bad or undesirable</t>
+          <t>adj. 美味的，令人愉悦的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>an arrest for shoplifting tarnished her reputation  因在商店行窃被捕玷污了她的声望</t>
+          <t>the tasty prospect of getting his revenge  报仇成功的诱人前景</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -747,17 +735,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tasty</t>
+          <t>tatty</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 美味的，令人愉悦的： giving pleasure or contentment to the mind or senses</t>
+          <t>adj. 破旧的，褴褛的： somewhat worn, shabby, or dilapidated</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>the tasty prospect of getting his revenge  报仇成功的诱人前景</t>
+          <t>a tatty shirt  破旧的衬衣</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -769,17 +757,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tatty</t>
+          <t>taunt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 破旧的，褴褛的： somewhat worn, shabby, or dilapidated</t>
+          <t>vt. 嘲弄性质疑，挑衅： to reproach or challenge in a mocking or insulting manner: jeer at</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a tatty shirt  破旧的衬衣</t>
+          <t>The boys continually taunted each other.   男孩子们互相挑衅。</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -791,17 +779,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>taunt</t>
+          <t>taut</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>vt. 嘲弄性质疑，挑衅： to reproach or challenge in a mocking or insulting manner: jeer at</t>
+          <t>adj. 紧绷的： not loose or flabby
+adj. 整洁的： kept in proper order or condition, kept in trim shape; neat and tidy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>The boys continually taunted each other.   男孩子们互相挑衅。</t>
+          <t>taut muscles  紧实的肌肉
+a taunt ship  保养得不错的船</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -813,19 +803,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>taut</t>
+          <t>tawdry</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adj. 紧绷的： not loose or flabby
-adj. 整洁的： kept in proper order or condition, kept in trim shape; neat and tidy</t>
+          <t>adj. 俗丽的： cheap and gaudy in appearance or quality; ignoble</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>taut muscles  紧实的肌肉
-a taunt ship  保养得不错的船</t>
+          <t>a tawdry attempt to smear his opponent  企图污蔑对手的下三滥的手段</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,17 +825,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tawdry</t>
+          <t>taxing</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 俗丽的： cheap and gaudy in appearance or quality; ignoble</t>
+          <t>adj. 繁重的，费力的： requiring much time, effort, or careful attention</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a tawdry attempt to smear his opponent  企图污蔑对手的下三滥的手段</t>
+          <t>The journey proved to be very taxing.  旅途很艰辛。</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,17 +847,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>taxing</t>
+          <t>tedious</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 繁重的，费力的： requiring much time, effort, or careful attention</t>
+          <t>adj. 冗长乏味的： tiresome because of length or dullness: boring</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The journey proved to be very taxing.  旅途很艰辛。</t>
+          <t>a tedious public ceremony  冗长无聊的公开仪式</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,17 +869,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tedious</t>
+          <t>teeter</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>adj. 冗长乏味的： tiresome because of length or dullness: boring</t>
+          <t>vi. 蹒跚，不稳定的行走： to move unsteadily: wobble
+v. 犹豫不决： to show uncertainty about the right course of action</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>a tedious public ceremony  冗长无聊的公开仪式</t>
+          <t>She teetered down the street in her high heels.  她穿着高跟鞋，在街上摇摇欲坠。
+was teetering on the brink of making a decision about college</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,19 +893,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>teeter</t>
+          <t>telling</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>vi. 蹒跚，不稳定的行走： to move unsteadily: wobble
-v. 犹豫不决： to show uncertainty about the right course of action</t>
+          <t>adj. 有效的，显著的： effective, expressive</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>She teetered down the street in her high heels.  她穿着高跟鞋，在街上摇摇欲坠。
-was teetering on the brink of making a decision about college</t>
+          <t>the most telling evidence  最有力的证据</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -927,17 +915,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>telling</t>
+          <t>temerity</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>adj. 有效的，显著的： effective, expressive</t>
+          <t>n. 鲁莽，冒失： foolhardy disregard of danger; recklessness</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>the most telling evidence  最有力的证据</t>
+          <t>She was punished for his temerity.   她因冒失迟到了苦头。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -949,17 +937,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>temerity</t>
+          <t>temporize</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>n. 鲁莽，冒失： foolhardy disregard of danger; recklessness</t>
+          <t>v. 行动躲躲闪闪以争取时间、躲避争论等： to act evasively in order to gain time, avoid argument, orpostpone a decision</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>She was punished for his temerity.   她因冒失迟到了苦头。</t>
+          <t>“Colonial officials .   .   .   ordered to enforce unpopular enactments, tended to temporize, to find excuses forevasion”(J.  H.   Parry) “被命令来执行不受欢迎法案的殖民地官员们倾向于敷衍了事，去寻找逃避的理由”(J.  H.  帕里)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -971,17 +959,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>temporize</t>
+          <t>temperate</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>v. 行动躲躲闪闪以争取时间、躲避争论等： to act evasively in order to gain time, avoid argument, orpostpone a decision</t>
+          <t>adj. 言行举止有分寸的： avoiding extremes in behavior or expression
+adj. 有节制的： given to or marked by restraint in the satisfaction of one's appetites</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>“Colonial officials .   .   .   ordered to enforce unpopular enactments, tended to temporize, to find excuses forevasion”(J.  H.   Parry) “被命令来执行不受欢迎法案的殖民地官员们倾向于敷衍了事，去寻找逃避的理由”(J.  H.  帕里)</t>
+          <t>rather temperate in his appraisal of the movie, calling it good but not great  对于电影的赞赏很适度，说其“还好”而不是“很棒”
+a soft-spoken, serious-minded person of temperate habits  一个说话温和、认真严肃的人，兴趣爱好都很适度</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -993,19 +983,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>temperate</t>
+          <t>tempestuous</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 言行举止有分寸的： avoiding extremes in behavior or expression
-adj. 有节制的： given to or marked by restraint in the satisfaction of one's appetites</t>
+          <t>adj. 突然且剧烈的变化： marked by sudden or violent disturbance</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>rather temperate in his appraisal of the movie, calling it good but not great  对于电影的赞赏很适度，说其“还好”而不是“很棒”
-a soft-spoken, serious-minded person of temperate habits  一个说话温和、认真严肃的人，兴趣爱好都很适度</t>
+          <t>In terms of social change, the 1960s are generally considered the most tempestuous decade in recentAmerican history.   就社会变革来说，20 世纪 60 年代是近现代美国历史上最动荡的十年。</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1017,17 +1005,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tempestuous</t>
+          <t>tenable</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 突然且剧烈的变化： marked by sudden or violent disturbance</t>
+          <t>adj. 有据可依的，无懈可击的： capable of being held or defended; reasonable</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>In terms of social change, the 1960s are generally considered the most tempestuous decade in recentAmerican history.   就社会变革来说，20 世纪 60 年代是近现代美国历史上最动荡的十年。</t>
+          <t>a tenable theory  一个站得住脚的理论 || a tenable outpost  一个守得住的前哨</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1039,17 +1027,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tenable</t>
+          <t>tenacious</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>adj. 有据可依的，无懈可击的： capable of being held or defended; reasonable</t>
+          <t>adj. 顽固的，不屈不挠的： persistent in maintaining something valued or habitual
+adj. 粘着的： tending to adhere to objects upon contact</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a tenable theory  一个站得住脚的理论 || a tenable outpost  一个守得住的前哨</t>
+          <t>a tenacious advocate of civil rights  公民权的坚定捍卫者
+You'll have enough time getting those tenacious gum off of your wool sweater.   你有足够的时候去把羊毛毛衣上面那块粘着的泡泡糖弄下来。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1061,19 +1051,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tenacious</t>
+          <t>tendentious</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 顽固的，不屈不挠的： persistent in maintaining something valued or habitual
-adj. 粘着的： tending to adhere to objects upon contact</t>
+          <t>adj. 有偏见的： marked by a tendency in favor of a particular point of view: biased</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a tenacious advocate of civil rights  公民权的坚定捍卫者
-You'll have enough time getting those tenacious gum off of your wool sweater.   你有足够的时候去把羊毛毛衣上面那块粘着的泡泡糖弄下来。</t>
+          <t>He made some extremely tendentious remarks.  他有些评论颇具偏向性。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1085,17 +1073,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>tendentious</t>
+          <t>tender</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adj. 有偏见的： marked by a tendency in favor of a particular point of view: biased</t>
+          <t>vt. 正式提出： to offer formally
+adj. 考虑周到的，关心同情的： having or marked by sympathy and consideration for others</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>He made some extremely tendentious remarks.  他有些评论颇具偏向性。</t>
+          <t>tender a letter of resignation  正式提交辞职信
+an especially tender teacher who loves having kids with special educational needs in her class  特 别 无微不至的老师，爱着那些需要特别教育的孩子们</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1107,19 +1097,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tender</t>
+          <t>tenuous</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>vt. 正式提出： to offer formally
-adj. 考虑周到的，关心同情的： having or marked by sympathy and consideration for others</t>
+          <t>adj. 没有实际内容的： having little substance; flimsy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>tender a letter of resignation  正式提交辞职信
-an especially tender teacher who loves having kids with special educational needs in her class  特 别 无微不至的老师，爱着那些需要特别教育的孩子们</t>
+          <t>a tenuous argument  站不住脚的论点</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1131,17 +1119,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tenuous</t>
+          <t>tepid</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adj. 没有实际内容的： having little substance; flimsy</t>
+          <t>adj. 不太热心的： showing little or no interest or enthusiasm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a tenuous argument  站不住脚的论点</t>
+          <t>a tepid response  冷漠的回应 || the tepid conservatism of the fifties  五十年代那种温和的保守主义</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1153,17 +1141,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tepid</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>adj. 不太热心的： showing little or no interest or enthusiasm</t>
+          <t>n. 专业术语： the special terms or expressions of a particular group or field</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>a tepid response  冷漠的回应 || the tepid conservatism of the fifties  五十年代那种温和的保守主义</t>
+          <t>the terminology favored by sportscasters  体育节目转播员喜欢用的那些术语 || medical terminology thatcan be hard for the patient to understand  那些病人们难以理解的医学术语</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1175,17 +1163,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>terminology</t>
+          <t>terminus</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>n. 专业术语： the special terms or expressions of a particular group or field</t>
+          <t>n. 终点，终点站： the final point; the end</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>the terminology favored by sportscasters  体育节目转播员喜欢用的那些术语 || medical terminology thatcan be hard for the patient to understand  那些病人们难以理解的医学术语</t>
+          <t>Stockholm is the terminus for the southbound train.  斯德哥尔摩是南向去的列车的终点站。</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1197,17 +1185,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>terminus</t>
+          <t>terror</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 终点，终点站： the final point; the end</t>
+          <t>n. 极度恐惧： a state of intense fear</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Stockholm is the terminus for the southbound train.  斯德哥尔摩是南向去的列车的终点站。</t>
+          <t>Many civilians fled in terror.   很多黎民百姓极度恐慌逃难去了。</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1219,17 +1207,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>terror</t>
+          <t>terse</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 极度恐惧： a state of intense fear</t>
+          <t>adj. 简洁的，简明的： brief and to the point; effectively concise</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Many civilians fled in terror.   很多黎民百姓极度恐慌逃难去了。</t>
+          <t>dismissed me with a terse “no” 用一个简单的“不”把我打发了</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1241,17 +1229,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>terse</t>
+          <t>testimony</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>adj. 简洁的，简明的： brief and to the point; effectively concise</t>
+          <t>n. 证词，声明： firsthand authentication of a fact</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>dismissed me with a terse “no” 用一个简单的“不”把我打发了</t>
+          <t>The jury heard 10 days of testimony.   陪审团进行了 10 天的听证。</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1263,17 +1251,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>testimony</t>
+          <t>testy</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>n. 证词，声明： firsthand authentication of a fact</t>
+          <t>adj. 易怒的，暴躁的： easily annoyed: irritable</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The jury heard 10 days of testimony.   陪审团进行了 10 天的听证。</t>
+          <t>That coworker would be easier to get along with if she weren't so testy all the time.   如果那个同伴不是一直那么暴怒的话，她还是挺好相处的。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1285,17 +1273,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>testy</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>adj. 易怒的，暴躁的： easily annoyed: irritable</t>
+          <t>vt.（用绳，铁链）拴系，束缚： to fasten or restrain by or as if by a tether
+n. 能力或忍耐力的极限： the limit of one's strength or resources</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>That coworker would be easier to get along with if she weren't so testy all the time.   如果那个同伴不是一直那么暴怒的话，她还是挺好相处的。</t>
+          <t>They tethered the horses in the shade.  他们把马摔在棚子里
+drought-stricken farmers at the end of their tether  受干旱打击的农民忍无可忍</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1307,19 +1297,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>tether</t>
+          <t>theatrical</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vt.（用绳，铁链）拴系，束缚： to fasten or restrain by or as if by a tether
-n. 能力或忍耐力的极限： the limit of one's strength or resources</t>
+          <t>adj. 做作的，夸张的，矫揉造作的： marked by exaggerated self-display and unnatural behavior</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>They tethered the horses in the shade.  他们把马摔在棚子里
-drought-stricken farmers at the end of their tether  受干旱打击的农民忍无可忍</t>
+          <t>assumed a theatrical pose  摆出夸张的姿势</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1331,17 +1319,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>theatrical</t>
+          <t>therapeutic</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 做作的，夸张的，矫揉造作的： marked by exaggerated self-display and unnatural behavior</t>
+          <t>adj. 治疗的： of or relating to the treatment of disease or disorders by remedial agents or methods</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>assumed a theatrical pose  摆出夸张的姿势</t>
+          <t>Gentle exercise can be therapeutic for hospital patients.  适量的运动对病人恢复有好处。</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1353,17 +1341,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>therapeutic</t>
+          <t>thorny</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 治疗的： of or relating to the treatment of disease or disorders by remedial agents or methods</t>
+          <t>adj. 多刺的： full of thorns
+adj. 棘手的： full of difficulties or controversial points : ticklish</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Gentle exercise can be therapeutic for hospital patients.  适量的运动对病人恢复有好处。</t>
+          <t>Stay out of the thorny brambles unless you want a ton of scratches.   离那些荆棘丛远一点，除非你想满身都是窟窿。
+a thorny problem  棘手的问题</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1375,47 +1365,45 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>thorny</t>
+          <t>threadbare</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>adj. 多刺的： full of thorns
-adj. 棘手的： full of difficulties or controversial points : ticklish</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Stay out of the thorny brambles unless you want a ton of scratches.   离那些荆棘丛远一点，除非你想满身都是窟窿。
-a thorny problem  棘手的问题</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>threadbare</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 陈腐的： overused to the point of being worn out; hackneyed
 adj. 贫穷的： lacking money or material possessions
 adj. 破烂的： worn or torn into or as if into rags</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>a novel filled with nothing but threadbare clichés  一部满是陈词滥调的小说
 never knew that she had so many threadbare relatives until she won the lottery  赢 了 彩 票之 后 才知 道她有这么多穷亲戚
 I loved that threadbare shirt, but after 10 years of wear, it was time to throw it away.  我 很 喜 欢 那 件 旧旧的衬衣，但是已经穿了 10 年了，是该扔了。</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>throng</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>vi./n. 大量聚集： to crowd together in great numbers</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>commuters thronging the MTR platform  持月票的乘客拥向地铁站</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1425,19 +1413,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>throng</t>
+          <t>thwart</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vi./n. 大量聚集： to crowd together in great numbers</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>commuters thronging the MTR platform  持月票的乘客拥向地铁站</t>
-        </is>
-      </c>
+          <t>vt. 阻挠： to oppose successfully</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1447,15 +1431,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>thwart</t>
+          <t>ticklish</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>vt. 阻挠： to oppose successfully</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>adj. 易怒的： easily offended or upset; touchy
+adj. 棘手的，对技巧要求高的： requiring exceptional skill or caution in performance or handling</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ticklish about his baldness  大家一提起他的秃头，他就暴怒
+Trying to tell him that his zipper is down without embarrassing him will be a ticklish task.  如 何 体 面 得体地提醒他拉链没关好是一个技巧活儿。</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1465,19 +1455,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ticklish</t>
+          <t>tiff</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>adj. 易怒的： easily offended or upset; touchy
-adj. 棘手的，对技巧要求高的： requiring exceptional skill or caution in performance or handling</t>
+          <t>n./v. 小争吵： a petty quarrel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ticklish about his baldness  大家一提起他的秃头，他就暴怒
-Trying to tell him that his zipper is down without embarrassing him will be a ticklish task.  如 何 体 面 得体地提醒他拉链没关好是一个技巧活儿。</t>
+          <t>got into a little tiff about what color sheets to buy for their bed  对于买什么颜色的床单争吵</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1489,17 +1477,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>tiff</t>
+          <t>tightfisted</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>n./v. 小争吵： a petty quarrel</t>
+          <t>adj. 吝啬的： close-fisted; stingy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>got into a little tiff about what color sheets to buy for their bed  对于买什么颜色的床单争吵</t>
+          <t>The company is pretty tightfisted when it comes to bonuses.  这个公司分红的时候很吝啬。</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1511,17 +1499,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>tightfisted</t>
+          <t>timeworn</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 吝啬的： close-fisted; stingy</t>
+          <t>adj. 陈腐的： hackneyed, stale</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>The company is pretty tightfisted when it comes to bonuses.  这个公司分红的时候很吝啬。</t>
+          <t>timeworn jokes  老掉牙的笑话</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1533,17 +1521,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>timeworn</t>
+          <t>timid</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj. 陈腐的： hackneyed, stale</t>
+          <t>adj. 胆小的，不自信的： lacking in courage or self-confidence</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>timeworn jokes  老掉牙的笑话</t>
+          <t>He gave her a timid smile.   他给了她一个羞赧的微笑。</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1555,17 +1543,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>timid</t>
+          <t>timorous</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 胆小的，不自信的： lacking in courage or self-confidence</t>
+          <t>adj. 胆小的： of a timid disposition: fearful</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>He gave her a timid smile.   他给了她一个羞赧的微笑。</t>
+          <t>be as timorous as a rabbit  像兔子一样胆小</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1577,17 +1565,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>timorous</t>
+          <t>tinge</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>adj. 胆小的： of a timid disposition: fearful</t>
+          <t>vt. 给…着上少量的色彩： to color with a slight shade or stain; tint</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>be as timorous as a rabbit  像兔子一样胆小</t>
+          <t>just slightly tinge the frosting with yellow food coloring to give it a lemony look  略微在霜糖表面加一点黄色色素，有一点柠檬的感觉就可以了</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1599,17 +1587,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tinge</t>
+          <t>tinker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vt. 给…着上少量的色彩： to color with a slight shade or stain; tint</t>
+          <t>vi. 乱修，乱调整： to handle thoughtlessly, ignorantly, or mischievously</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>just slightly tinge the frosting with yellow food coloring to give it a lemony look  略微在霜糖表面加一点黄色色素，有一点柠檬的感觉就可以了</t>
+          <t>tinkering with the engine  胡乱调整发动机</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1621,17 +1609,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tinker</t>
+          <t>tint</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vi. 乱修，乱调整： to handle thoughtlessly, ignorantly, or mischievously</t>
+          <t>v. 涂浅色，微染： apply a usually slight or pale coloration to</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>tinkering with the engine  胡乱调整发动机</t>
+          <t>tint with only one color  只用一种颜色染色</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1643,17 +1631,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tint</t>
+          <t>tirade</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>v. 涂浅色，微染： apply a usually slight or pale coloration to</t>
+          <t>n. 长篇抨击性演讲： a long angry or violent speech, usually of a censorious or denunciatory nature;a diatribe</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>tint with only one color  只用一种颜色染色</t>
+          <t>a tirade of angry protest  一个表达愤怒的抗议的长篇抨击性演讲</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1665,17 +1653,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>tirade</t>
+          <t>toady</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>n. 长篇抨击性演讲： a long angry or violent speech, usually of a censorious or denunciatory nature;a diatribe</t>
+          <t>n./v. 马屁精，拍马屁： one who flatters in the hope of gaining favors</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>a tirade of angry protest  一个表达愤怒的抗议的长篇抨击性演讲</t>
+          <t>He criticized that I was a toady.   他批评说我是一个马屁精。</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1687,17 +1675,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>toady</t>
+          <t>tonic</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n./v. 马屁精，拍马屁： one who flatters in the hope of gaining favors</t>
+          <t>adj. 滋补的，有益健康的： producing or stimulating physical, mental, or emotional vigor; beneficialto the health of body or mind</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>He criticized that I was a toady.   他批评说我是一个马屁精。</t>
+          <t>tonic medicine  补药</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1709,17 +1697,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tonic</t>
+          <t>torpid</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 滋补的，有益健康的： producing or stimulating physical, mental, or emotional vigor; beneficialto the health of body or mind</t>
+          <t>adj. 麻木的，没有知觉的： lacking in sensation or feeling
+adj. 迟钝的，行动迟缓的： slow to move or act</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>tonic medicine  补药</t>
+          <t>My tongue and throat remained torpid for a time following the endoscopy.   胃镜检查之后，我的舌头和喉咙一直是麻木的。
+a torpid sloth that refused to budge off its tree branch  趴在树枝上一动不动的树獭</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1731,19 +1721,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>torpid</t>
+          <t>torpor</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 麻木的，没有知觉的： lacking in sensation or feeling
-adj. 迟钝的，行动迟缓的： slow to move or act</t>
+          <t>n. 缺乏兴趣： lack of interest or concern
+n. （肉体或精神上的）迟钝： physical or mental inertness</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>My tongue and throat remained torpid for a time following the endoscopy.   胃镜检查之后，我的舌头和喉咙一直是麻木的。
-a torpid sloth that refused to budge off its tree branch  趴在树枝上一动不动的树獭</t>
+          <t>After a lifetime of setbacks, defeats, and failures, he could only greet the latest bad news with a resignedfatalism and dull torpor.  一生都充满了挫折、失败，他只能用宿命论和麻木不仁来迎接又一次的坏消息。
+Following Thanksgiving dinner, we spent the rest of the day lounging about in a contented torpor.  吃完感恩节晚餐后，我们慵懒地靠在沙发上打发剩下的时间。</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1755,19 +1745,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>torpor</t>
+          <t>torrential</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 缺乏兴趣： lack of interest or concern
-n. （肉体或精神上的）迟钝： physical or mental inertness</t>
+          <t>adj. 急流的： caused by or resulting from action of rapid streams</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>After a lifetime of setbacks, defeats, and failures, he could only greet the latest bad news with a resignedfatalism and dull torpor.  一生都充满了挫折、失败，他只能用宿命论和麻木不仁来迎接又一次的坏消息。
-Following Thanksgiving dinner, we spent the rest of the day lounging about in a contented torpor.  吃完感恩节晚餐后，我们慵懒地靠在沙发上打发剩下的时间。</t>
+          <t>a torrential rain  倾盆大雨</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1779,17 +1767,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>torrential</t>
+          <t>torrid</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>adj. 急流的： caused by or resulting from action of rapid streams</t>
+          <t>adj. 酷热的： intensely hot
+adj. 热情的，情感深厚的： having or expressing great depth of feeling</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>a torrential rain  倾盆大雨</t>
+          <t>the dry, torrid summers in southern Arizona  南亚利桑那州干燥、炎热的夏天
+torrid love affair  炙热的爱</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1801,19 +1791,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>torrid</t>
+          <t>tortuous</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>adj. 酷热的： intensely hot
-adj. 热情的，情感深厚的： having or expressing great depth of feeling</t>
+          <t>adj. 转弯抹角的： marked by devious or indirect tactics: crooked, tricky</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>the dry, torrid summers in southern Arizona  南亚利桑那州干燥、炎热的夏天
-torrid love affair  炙热的爱</t>
+          <t>a tortuous path  一条蜿蜒的道路</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1825,17 +1813,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tortuous</t>
+          <t>tout</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 转弯抹角的： marked by devious or indirect tactics: crooked, tricky</t>
+          <t>vt. 极力赞扬： to promote or praise energetically; publicize</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>a tortuous path  一条蜿蜒的道路</t>
+          <t>to tout victory in the war  鼓吹战果</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1847,17 +1835,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tout</t>
+          <t>toy</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vt. 极力赞扬： to promote or praise energetically; publicize</t>
+          <t>vi. 草率或不认真地对待： to handle thoughtlessly, ignorantly, or mischievously</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>to tout victory in the war  鼓吹战果</t>
+          <t>That microscope is a delicate instrument, not something to be toyed with.   那个显微镜是精密仪器，不是随随便便的一个玩具。</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1869,17 +1857,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>tractable</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>vi. 草率或不认真地对待： to handle thoughtlessly, ignorantly, or mischievously</t>
+          <t>adj. 易驾驭的，温顺的： readily giving in to the command or authority of another</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>That microscope is a delicate instrument, not something to be toyed with.   那个显微镜是精密仪器，不是随随便便的一个玩具。</t>
+          <t>a tractable horse  一匹温顺的马</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1891,17 +1879,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tractable</t>
+          <t>tranquility</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>adj. 易驾驭的，温顺的： readily giving in to the command or authority of another</t>
+          <t>n. 宁静，淡定： a state of freedom from storm or disturbance</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>a tractable horse  一匹温顺的马</t>
+          <t>enjoyed the tranquillity of the snow-covered field at dusk  享受傍晚时分被雪覆盖的田野的静谧</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1913,17 +1901,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>tranquility</t>
+          <t>transcend</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>n. 宁静，淡定： a state of freedom from storm or disturbance</t>
+          <t>vt. 超越，超过极限： to rise above or go beyond the limits of</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>enjoyed the tranquillity of the snow-covered field at dusk  享受傍晚时分被雪覆盖的田野的静谧</t>
+          <t>a person who believes that any true understanding of God transcends human intelligence  认 为 对 上 帝的真正理解是超越人类智商极限的人</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1935,17 +1923,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>transcend</t>
+          <t>transfigure</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vt. 超越，超过极限： to rise above or go beyond the limits of</t>
+          <t>vt. 改变外观： to alter the outward appearance of; transform</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>a person who believes that any true understanding of God transcends human intelligence  认 为 对 上 帝的真正理解是超越人类智商极限的人</t>
+          <t>transfigure the AutoCAD drawings with elegant symbols  用优美的符号使 AutoCAD  图变得美观</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1957,17 +1945,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>transfigure</t>
+          <t>transgress</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vt. 改变外观： to alter the outward appearance of; transform</t>
+          <t>vt. 违背，犯错： to fail to keep; to commit an offense</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>transfigure the AutoCAD drawings with elegant symbols  用优美的符号使 AutoCAD  图变得美观</t>
+          <t>don't even think about transgressing the drug laws of that Asian country, for punishments are severe andthere's nothing that our government can do to intervene  别指望违背亚洲国家的药品相关法，因为惩罚非常严厉，政府会尽全力干涉</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1979,17 +1967,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>transgress</t>
+          <t>transient</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>vt. 违背，犯错： to fail to keep; to commit an offense</t>
+          <t>adj. 短暂的，瞬时的： passing with time; transitory</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>don't even think about transgressing the drug laws of that Asian country, for punishments are severe andthere's nothing that our government can do to intervene  别指望违背亚洲国家的药品相关法，因为惩罚非常严厉，政府会尽全力干涉</t>
+          <t>transient pleasure  短暂的快乐</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2001,17 +1989,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>transient</t>
+          <t>transitory</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 短暂的，瞬时的： passing with time; transitory</t>
+          <t>adj. 短暂的： existing or lasting only a short time; short-lived or temporary</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>transient pleasure  短暂的快乐</t>
+          <t>most of life’s joys are transitory  尘世间的欢乐都是过眼烟云，转瞬即逝</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2023,17 +2011,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>transitory</t>
+          <t>translucent</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 短暂的： existing or lasting only a short time; short-lived or temporary</t>
+          <t>adj. 透明的： permitting the passage of light: clear, transparent</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>most of life’s joys are transitory  尘世间的欢乐都是过眼烟云，转瞬即逝</t>
+          <t>translucent dewdrop  透明的露珠</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2045,17 +2033,18 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>translucent</t>
+          <t>transparent</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 透明的： permitting the passage of light: clear, transparent</t>
+          <t>adj. 透明的： capable of transmitting light
+adj. 没有歧义，清晰易懂的： not subject to misinterpretation or more than one interpretation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>translucent dewdrop  透明的露珠</t>
+          <t>His meaning in leaving the conversation is transparent: he doesn't want to talk about his combatexperiences.   他结束这个话题的意图很明显：不想谈论当年参战的事。</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2067,18 +2056,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>transparent</t>
+          <t>travail</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 透明的： capable of transmitting light
-adj. 没有歧义，清晰易懂的： not subject to misinterpretation or more than one interpretation</t>
+          <t>n./v. 辛苦劳动： work, especially when arduous or involving painful effort</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>His meaning in leaving the conversation is transparent: he doesn't want to talk about his combatexperiences.   他结束这个话题的意图很明显：不想谈论当年参战的事。</t>
+          <t>writer’s literary travail  作家辛勤的文学创作 || Labor Day is the day on which we recognize those menand women who daily travail with little appreciation or compensation.  劳动节是我们向那些平日辛勤劳作但是很少受到大家关注和补偿的工人致敬的日子。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2090,17 +2078,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>travail</t>
+          <t>traverse</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>n./v. 辛苦劳动： work, especially when arduous or involving painful effort</t>
+          <t>vt. 横穿： to travel or pass across, over, or through</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>writer’s literary travail  作家辛勤的文学创作 || Labor Day is the day on which we recognize those menand women who daily travail with little appreciation or compensation.  劳动节是我们向那些平日辛勤劳作但是很少受到大家关注和补偿的工人致敬的日子。</t>
+          <t>The spider traversed the wall from end to end.   蜘蛛侠攀岩走壁。</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2112,17 +2100,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>traverse</t>
+          <t>travesty</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>vt. 横穿： to travel or pass across, over, or through</t>
+          <t>n./v. 拙劣的、嘲弄性模仿： an exaggerated or grotesque imitation, such as a parody of a literary work</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>The spider traversed the wall from end to end.   蜘蛛侠攀岩走壁。</t>
+          <t>a travesty of his classmate’s manner  滑稽的模仿其他同学的举止</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2134,17 +2122,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>travesty</t>
+          <t>treacherous</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>n./v. 拙劣的、嘲弄性模仿： an exaggerated or grotesque imitation, such as a parody of a literary work</t>
+          <t>adj. 背叛的： marked by betrayal of fidelity, confidence, or trust</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>a travesty of his classmate’s manner  滑稽的模仿其他同学的举止</t>
+          <t>a treacherous ally  不忠的盟友</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2156,17 +2144,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>treacherous</t>
+          <t>trenchant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 背叛的： marked by betrayal of fidelity, confidence, or trust</t>
+          <t>adj. 锐利的： keen, sharp
+adj. （言辞）一针见血的： vigorously effective and articulate</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>a treacherous ally  不忠的盟友</t>
+          <t>Even the most trenchant sword could not sever the bonds of loyalty between them.  即 使 最 锋 利 的 刀剑也不能切断他们的忠诚。
+trenchant criticisms  一针见血的批评</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2178,19 +2168,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>trenchant</t>
+          <t>trepidation</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 锐利的： keen, sharp
-adj. （言辞）一针见血的： vigorously effective and articulate</t>
+          <t>n. 恐惧，战栗： the emotion experienced in the presence or threat of danger; apprehension</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Even the most trenchant sword could not sever the bonds of loyalty between them.  即 使 最 锋 利 的 刀剑也不能切断他们的忠诚。
-trenchant criticisms  一针见血的批评</t>
+          <t>trepidation about starting a new career  对开创一项新事业而感到恐惧</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2202,17 +2190,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>trepidation</t>
+          <t>trespass</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>n. 恐惧，战栗： the emotion experienced in the presence or threat of danger; apprehension</t>
+          <t>vi. 非法侵入，违反： to commit an offense</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>trepidation about starting a new career  对开创一项新事业而感到恐惧</t>
+          <t>I consider him to be trespassing against all of us when he trespasses against any one of us.  当 他 冒犯我们当中一个人的时候，他就冒犯了我们全部</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2224,17 +2212,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>trespass</t>
+          <t>tribute</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vi. 非法侵入，违反： to commit an offense</t>
+          <t>n. 颂词： a gift, payment, declaration, or other acknowledgment of gratitude, respect, or admiration</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>I consider him to be trespassing against all of us when he trespasses against any one of us.  当 他 冒犯我们当中一个人的时候，他就冒犯了我们全部</t>
+          <t>pay a high tribute to… 赞颂</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2246,17 +2234,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>tribute</t>
+          <t>trickle</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n. 颂词： a gift, payment, declaration, or other acknowledgment of gratitude, respect, or admiration</t>
+          <t>vi. 一滴滴地流，徐徐地流： to issue or fall in drops</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>pay a high tribute to… 赞颂</t>
+          <t>Tears trickled down her cheeks.   眼泪从她的脸上一滴一滴地流下。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2268,17 +2256,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>trickle</t>
+          <t>trite</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>vi. 一滴滴地流，徐徐地流： to issue or fall in drops</t>
+          <t>adj. 陈腐的，陈词滥调的： hackneyed or boring from much use, not fresh or original</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tears trickled down her cheeks.   眼泪从她的脸上一滴一滴地流下。</t>
+          <t>“You win some, you lose some” is a trite expression.  “有得必有失”是老生常谈了。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2290,17 +2278,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>trite</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. 陈腐的，陈词滥调的： hackneyed or boring from much use, not fresh or original</t>
+          <t>adj. 琐碎的，无足轻重的： of little worth or importance</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>“You win some, you lose some” is a trite expression.  “有得必有失”是老生常谈了。</t>
+          <t>why spend so much time on trivial decisions, like whether the cola should be regular or diet?为 什 么</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2312,17 +2300,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>truant</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. 琐碎的，无足轻重的： of little worth or importance</t>
+          <t>adj./ n./ vi. 逃避责任的： shirking responsibility; one who shirks duty</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>why spend so much time on trivial decisions, like whether the cola should be regular or diet?为 什 么</t>
+          <t>play truant  逃学</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2334,17 +2322,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>truant</t>
+          <t>truce</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>adj./ n./ vi. 逃避责任的： shirking responsibility; one who shirks duty</t>
+          <t>n. 休战，休战协定： a suspension of fighting especially of considerable duration by agreement ofopposing forces</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>play truant  逃学</t>
+          <t>truce agreement  休战协议</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2356,17 +2344,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>truce</t>
+          <t>truculent</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n. 休战，休战协定： a suspension of fighting especially of considerable duration by agreement ofopposing forces</t>
+          <t>adj. 尖酸刻薄的： marked by harsh insulting language
+adj. 好战的： feeling or displaying eagerness to fight</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>truce agreement  休战协议</t>
+          <t>a theater critic who was notorious for his titanically truculent reviews  一个以超大量尖酸刻薄言论著称的话剧评论家
+in an aggressively truculent manner  以好战的，进攻性的方式</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2378,19 +2368,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>truculent</t>
+          <t>trudge</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>adj. 尖酸刻薄的： marked by harsh insulting language
-adj. 好战的： feeling or displaying eagerness to fight</t>
+          <t>vi. 吃力而笨拙地走： to move heavily or clumsily</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>a theater critic who was notorious for his titanically truculent reviews  一个以超大量尖酸刻薄言论著称的话剧评论家
-in an aggressively truculent manner  以好战的，进攻性的方式</t>
+          <t>trudge over hill  翻山越岭</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2402,19 +2390,15 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>trudge</t>
+          <t>trumpet</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>vi. 吃力而笨拙地走： to move heavily or clumsily</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>trudge over hill  翻山越岭</t>
-        </is>
-      </c>
+          <t>v. 大声说出或宣告： to make known openly or publicly</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2424,15 +2408,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>trumpet</t>
+          <t>truncate</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>v. 大声说出或宣告： to make known openly or publicly</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>v. 截短（时间，程度）： to shorten by or as if by cutting off</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>a truncated version of the 11 o'clock newscast followed the awards show, which ran over its time slot  颁奖典礼之后缩短版的 11 点新闻节目，已经超出了预定时长</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2442,17 +2430,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>truncate</t>
+          <t>truss</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>v. 截短（时间，程度）： to shorten by or as if by cutting off</t>
+          <t>v. 系紧，扎紧： to gather into a tight mass by means of a line or cord</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>a truncated version of the 11 o'clock newscast followed the awards show, which ran over its time slot  颁奖典礼之后缩短版的 11 点新闻节目，已经超出了预定时长</t>
+          <t>After stuffing the turkey, the chef quickly trussed it so the forcemeat wouldn't fall out during roasting.   把填料塞进火鸡后，大厨迅速把它扎紧防止在烘烤过程中肉馅掉出来。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2464,17 +2452,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>truss</t>
+          <t>tumult</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>v. 系紧，扎紧： to gather into a tight mass by means of a line or cord</t>
+          <t>n. 骚动，暴动： a disorderly commotion or disturbance, a riot</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>After stuffing the turkey, the chef quickly trussed it so the forcemeat wouldn't fall out during roasting.   把填料塞进火鸡后，大厨迅速把它扎紧防止在烘烤过程中肉馅掉出来。</t>
+          <t>His mind was in a tumult.  他心烦意乱。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2486,17 +2474,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>tumult</t>
+          <t>turbid</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 骚动，暴动： a disorderly commotion or disturbance, a riot</t>
+          <t>adj. 混浊的： deficient in clarity or purity</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>His mind was in a tumult.  他心烦意乱。</t>
+          <t>a turbid stream  一条混浊的河</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2508,17 +2496,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>turbid</t>
+          <t>turbulent</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>adj. 混浊的： deficient in clarity or purity</t>
+          <t>adj. 动荡的： marked by sudden or violent disturbance
+adj. 湍急的，汹涌的： marked by turmoil or disturbance especially of natural elements</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>a turbid stream  一条混浊的河</t>
+          <t>a turbulent period in history  历史上动荡时期
+the turbulent rapids of the river were certainly daunting to those of us who were new to river rafting  湍急的流水必定让那些初玩漂流的人们吓得不轻</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2530,19 +2520,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>turbulent</t>
+          <t>turgid</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 动荡的： marked by sudden or violent disturbance
-adj. 湍急的，汹涌的： marked by turmoil or disturbance especially of natural elements</t>
+          <t>adj. 浮夸的，过分装饰的： excessively embellished in style or language</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>a turbulent period in history  历史上动荡时期
-the turbulent rapids of the river were certainly daunting to those of us who were new to river rafting  湍急的流水必定让那些初玩漂流的人们吓得不轻</t>
+          <t>turgid prose  浮华的散文</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2554,17 +2542,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>turgid</t>
+          <t>turmoil</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 浮夸的，过分装饰的： excessively embellished in style or language</t>
+          <t>n. 骚动，混乱： a state or condition of extreme confusion, agitation, or commotion</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>turgid prose  浮华的散文</t>
+          <t>My mind is in a turmoil.   我心里很乱。</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2576,17 +2564,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>turmoil</t>
+          <t>turncoat</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 骚动，混乱： a state or condition of extreme confusion, agitation, or commotion</t>
+          <t>n. 叛徒： one who switches to an opposing side or party; specifically: traitor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>My mind is in a turmoil.   我心里很乱。</t>
+          <t>He was labeled as a turncoat.   他是一个叛徒。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2598,17 +2586,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>turncoat</t>
+          <t>typo</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 叛徒： one who switches to an opposing side or party; specifically: traitor</t>
+          <t>n. 打字错误： an error in typed or typeset material</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>He was labeled as a turncoat.   他是一个叛徒。</t>
+          <t>make one typo on the memo  在样张上打错一个字</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2620,17 +2608,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>typo</t>
+          <t>tyro</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 打字错误： an error in typed or typeset material</t>
+          <t>n. 新手，业余爱好者： a beginner in learning: novice</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>make one typo on the memo  在样张上打错一个字</t>
+          <t>a tyro in the art of piano  钢琴界的新手</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2642,17 +2630,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>tyro</t>
+          <t>ubiquitous</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>n. 新手，业余爱好者： a beginner in learning: novice</t>
+          <t>adj. 无所不在的，普通的： being everywhere at the same time; often observed or encountered</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>a tyro in the art of piano  钢琴界的新手</t>
+          <t>The conflict between opposites is ubiquitous.   对立的冲突无所不在。</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2664,17 +2652,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ubiquitous</t>
+          <t>unassailable</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>adj. 无所不在的，普通的： being everywhere at the same time; often observed or encountered</t>
+          <t>adj. 无可争辩的，无法否认的，不可亵渎的： not to be violated, criticized, or tampered with</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>The conflict between opposites is ubiquitous.   对立的冲突无所不在。</t>
+          <t>an unassailable article  无可争辩的文章</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2686,17 +2674,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>unassailable</t>
+          <t>uncanny</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 无可争辩的，无法否认的，不可亵渎的： not to be violated, criticized, or tampered with</t>
+          <t>adj. 离奇的，奇异的： being so extraordinary or abnormal as to suggest powers which violate thelaws of nature</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>an unassailable article  无可争辩的文章</t>
+          <t>The silence was uncanny.   静得出奇</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2708,17 +2696,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>uncanny</t>
+          <t>uncouth</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>adj. 离奇的，奇异的： being so extraordinary or abnormal as to suggest powers which violate thelaws of nature</t>
+          <t>adj. 粗俗的，没有品位的： lacking in refinement or good taste</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>The silence was uncanny.   静得出奇</t>
+          <t>the movie's uncouth humor seemed to be purposely offensive  电影里一些恶俗的幽默貌似是故意的</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2730,17 +2718,19 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>uncouth</t>
+          <t>unctuous</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 粗俗的，没有品位的： lacking in refinement or good taste</t>
+          <t>adj. 油嘴滑舌的，谄媚的： overly or insincerely flattering
+adj. 夸张的，做作的： characterized by affected, exaggerated, or insincere earnestness</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>the movie's uncouth humor seemed to be purposely offensive  电影里一些恶俗的幽默貌似是故意的</t>
+          <t>an unctuous appraisal of the musical talent shown by the boss's daughter  拍老板马屁，说他女儿音乐剧的才能非常卓越
+an unctuous effort to appear religious to the voters  过分做作想在选民面前表现地虔诚</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2752,19 +2742,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>unctuous</t>
+          <t>underdog</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adj. 油嘴滑舌的，谄媚的： overly or insincerely flattering
-adj. 夸张的，做作的： characterized by affected, exaggerated, or insincere earnestness</t>
+          <t>n. 受害者，输家： a loser/ victim or predicted loser in a struggle or contest</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>an unctuous appraisal of the musical talent shown by the boss's daughter  拍老板马屁，说他女儿音乐剧的才能非常卓越
-an unctuous effort to appear religious to the voters  过分做作想在选民面前表现地虔诚</t>
+          <t>She always supports for the underdog.  她经常支持受害者。</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2776,17 +2764,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>underdog</t>
+          <t>undergird</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>n. 受害者，输家： a loser/ victim or predicted loser in a struggle or contest</t>
+          <t>vt. 加强，巩固…的底部： to support or strengthen from beneath</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>She always supports for the underdog.  她经常支持受害者。</t>
+          <t>facts and statistics undergird his commentary  事实和数据支持了他的评论</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2798,17 +2786,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>undergird</t>
+          <t>undermine</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. 加强，巩固…的底部： to support or strengthen from beneath</t>
+          <t>vt. 削弱，破坏： to weaken, injure, or impair, often by degrees or imperceptibly</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>facts and statistics undergird his commentary  事实和数据支持了他的评论</t>
+          <t>undermine a fortress  挖地道破坏堡垒</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2820,17 +2808,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>undermine</t>
+          <t>underscore</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vt. 削弱，破坏： to weaken, injure, or impair, often by degrees or imperceptibly</t>
+          <t>vt. 强调： to emphasize; stress</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>undermine a fortress  挖地道破坏堡垒</t>
+          <t>underscore the value of education  强调教育的重要性</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2842,17 +2830,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>underscore</t>
+          <t>understate</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vt. 强调： to emphasize; stress</t>
+          <t>vt. 保守陈述： to state or present with restraint especially for effect</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>underscore the value of education  强调教育的重要性</t>
+          <t>understate a problem  低调处理问题</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2864,17 +2852,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>understate</t>
+          <t>understudy</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>vt. 保守陈述： to state or present with restraint especially for effect</t>
+          <t>n. 替补演员： one who is prepared to act another's part or take over another's duties</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>understate a problem  低调处理问题</t>
+          <t>be an understudy to sb  作为某人的替补</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2886,19 +2874,15 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>understudy</t>
+          <t>unexceptionable</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>n. 替补演员： one who is prepared to act another's part or take over another's duties</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>be an understudy to sb  作为某人的替补</t>
-        </is>
-      </c>
+          <t>adj. 无懈可击的： not open to objection or criticism, beyond reproach</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2908,15 +2892,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>unexceptionable</t>
+          <t>unflappable</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. 无懈可击的： not open to objection or criticism, beyond reproach</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
+          <t>adj. 镇定的，从容不迫的： not easily upset or excited</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>a unflappable general  一个镇定的将军</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2926,17 +2914,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>unflappable</t>
+          <t>ungainly</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 镇定的，从容不迫的： not easily upset or excited</t>
+          <t>adj. 笨拙的，不雅的： having or showing an inability to move in a graceful manner</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>a unflappable general  一个镇定的将军</t>
+          <t>ungainly movements  笨拙的动作</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2948,17 +2936,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ungainly</t>
+          <t>unimpeachable</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 笨拙的，不雅的： having or showing an inability to move in a graceful manner</t>
+          <t>adj. 无可置疑的： beyond doubt; unquestionable</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ungainly movements  笨拙的动作</t>
+          <t>An unimpeachable evidence  无可置疑的证据</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2970,17 +2958,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>unimpeachable</t>
+          <t>unkempt</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 无可置疑的： beyond doubt; unquestionable</t>
+          <t>adj. 凌乱的，无序的： lacking in order, neatness, and often cleanliness</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>An unimpeachable evidence  无可置疑的证据</t>
+          <t>unkempt hotel rooms  凌乱的酒店房间</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2992,17 +2980,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>unkempt</t>
+          <t>unlettered</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 凌乱的，无序的： lacking in order, neatness, and often cleanliness</t>
+          <t>adj. 未受教育的，文盲的： not adept at reading and writing; deficient in the knowledge that can beacquired from books. illiterate</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>unkempt hotel rooms  凌乱的酒店房间</t>
+          <t>unlettered sector of society  未受教育的地区</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3014,17 +3002,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>unlettered</t>
+          <t>unpretentious</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 未受教育的，文盲的： not adept at reading and writing; deficient in the knowledge that can beacquired from books. illiterate</t>
+          <t>adj. 低调的，谦逊的： lacking pretension or affectation; modest</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>unlettered sector of society  未受教育的地区</t>
+          <t>an unpretentious virtuoso  一位谦虚的大师</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3036,17 +3024,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>unpretentious</t>
+          <t>unproductive</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 低调的，谦逊的： lacking pretension or affectation; modest</t>
+          <t>adj. 徒然的，无效的： not productive; idle</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>an unpretentious virtuoso  一位谦虚的大师</t>
+          <t>her attempts to write a novel have been unproductive  她一直想写本小说的努力只是徒然</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3058,17 +3046,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>unproductive</t>
+          <t>unrequited</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 徒然的，无效的： not productive; idle</t>
+          <t>adj. 无报答的，无报酬的： not reciprocated or returned in kind</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>her attempts to write a novel have been unproductive  她一直想写本小说的努力只是徒然</t>
+          <t>unrequited love  无报答的爱</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3080,17 +3068,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>unrequited</t>
+          <t>unruly</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 无报答的，无报酬的： not reciprocated or returned in kind</t>
+          <t>adj. 难驾驭的，不守规矩的： difficult or impossible to discipline, control, or rule.</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>unrequited love  无报答的爱</t>
+          <t>an unruly child  一个不听话的孩子</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3102,17 +3090,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>unruly</t>
+          <t>untenable</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 难驾驭的，不守规矩的： difficult or impossible to discipline, control, or rule.</t>
+          <t>adj. 防守不住的，站不住脚的： not able to be defended</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>an unruly child  一个不听话的孩子</t>
+          <t>an untenable position  一个站不住脚的立场</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3124,17 +3112,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>untenable</t>
+          <t>untold</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 防守不住的，站不住脚的： not able to be defended</t>
+          <t>adj. 数不清的，无数的： too great or numerous to count</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>an untenable position  一个站不住脚的立场</t>
+          <t>untold wealth  不知其数的财富</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3146,17 +3134,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>untold</t>
+          <t>untoward</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 数不清的，无数的： too great or numerous to count</t>
+          <t>adj. 倒霉的，不吉利的： not favorable, unpropitious</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>untold wealth  不知其数的财富</t>
+          <t>an untoward incident  不幸的事故</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3168,17 +3156,19 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>untoward</t>
+          <t>unwitting</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 倒霉的，不吉利的： not favorable, unpropitious</t>
+          <t>adj. 不知道的，未觉察的： not knowing, unaware
+adj. 偶然的，并非有意的： happening by chance; not intended</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>an untoward incident  不幸的事故</t>
+          <t>Please forgive my unwitting interruption of your conversation.  请原谅我无意间打断了你们的谈话。
+an unwitting mistake made in copying the material  在打印过程中一个无心的过失</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3190,19 +3180,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>unwitting</t>
+          <t>unwonted</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 不知道的，未觉察的： not knowing, unaware
-adj. 偶然的，并非有意的： happening by chance; not intended</t>
+          <t>adj. 不习惯的，不寻常的： not habitual or ordinary; unusual</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Please forgive my unwitting interruption of your conversation.  请原谅我无意间打断了你们的谈话。
-an unwitting mistake made in copying the material  在打印过程中一个无心的过失</t>
+          <t>honored for the unwonted courage he showed in battle  因在战争中表现出的过人的勇气受到嘉奖</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3214,17 +3202,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>unwonted</t>
+          <t>upbraid</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>adj. 不习惯的，不寻常的： not habitual or ordinary; unusual</t>
+          <t>vt.（严厉地）谴责，责骂： to reproach severely</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>honored for the unwonted courage he showed in battle  因在战争中表现出的过人的勇气受到嘉奖</t>
+          <t>upbraid sb.   with his ingratitude  责备某人忘恩负义</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3236,17 +3224,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>upbraid</t>
+          <t>uphold</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vt.（严厉地）谴责，责骂： to reproach severely</t>
+          <t>vt. 支持，赞成： to give support to</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>upbraid sb.   with his ingratitude  责备某人忘恩负义</t>
+          <t>determined to uphold her views in the face of all challenges  下定决心支持她的观点，尽管全世界都反对她</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3258,19 +3246,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>uphold</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>vt. 支持，赞成： to give support to</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>determined to uphold her views in the face of all challenges  下定决心支持她的观点，尽管全世界都反对她</t>
-        </is>
-      </c>
+          <t>urbane</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3280,11 +3260,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>urbane</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="inlineStr"/>
+          <t>usurp</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>vt. 篡夺，篡位： to seize and hold (the power or rights of another, for example) by force and withoutlegal authority</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>usurp the throne  篡夺王位</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3294,17 +3282,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>usurp</t>
+          <t>utter</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vt. 篡夺，篡位： to seize and hold (the power or rights of another, for example) by force and withoutlegal authority</t>
+          <t>vt. 出声，说话： to articulate (words); pronounce or speak
+adj. 完全的，绝对的： complete; absolute; entire</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>usurp the throne  篡夺王位</t>
+          <t>She tried not to utter a sound as the doctor gave her a flu shot.   她克制自己不在打针的时候喊出来。
+be at an utter loss what to do  完全不知道怎样才好</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3316,19 +3306,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>utter</t>
+          <t>vaccinate</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>vt. 出声，说话： to articulate (words); pronounce or speak
-adj. 完全的，绝对的： complete; absolute; entire</t>
+          <t>v. 预防接种： to inoculate with a vaccine in order to produce immunity to an infectious disease, suchas diphtheria or typhus</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>She tried not to utter a sound as the doctor gave her a flu shot.   她克制自己不在打针的时候喊出来。
-be at an utter loss what to do  完全不知道怎样才好</t>
+          <t>vaccinate sb.   for smallpox  为某人接种牛痘疫苗以防天花</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3340,17 +3328,18 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>vaccinate</t>
+          <t>vacillate</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>v. 预防接种： to inoculate with a vaccine in order to produce immunity to an infectious disease, suchas diphtheria or typhus</t>
+          <t>vi. 犹豫不决： to waver in mind, will, or feeling: hesitate in choice of opinions or courses
+vi. 摇动，摇摆： to sway from one side to the other; oscillate</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>vaccinate sb.   for smallpox  为某人接种牛痘疫苗以防天花</t>
+          <t>Parents vacillate between saying no and yes, but actually neither response seems satisfactory to their children.   父母总是犹豫不定，不知道是该同意还是该反对，但是事实上哪种答案对他们的孩子都不理想。</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3362,18 +3351,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>vacillate</t>
+          <t>vacuous</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>vi. 犹豫不决： to waver in mind, will, or feeling: hesitate in choice of opinions or courses
-vi. 摇动，摇摆： to sway from one side to the other; oscillate</t>
+          <t>adj. 茫然的，愚蠢的： marked by lack of ideas or intelligence</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Parents vacillate between saying no and yes, but actually neither response seems satisfactory to their children.   父母总是犹豫不定，不知道是该同意还是该反对，但是事实上哪种答案对他们的孩子都不理想。</t>
+          <t>a movie that was derided for its vacuous dialogue  一部因为对白十分愚蠢而被嘲讽的电影</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3385,19 +3373,15 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vacuous</t>
+          <t>vagary</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 茫然的，愚蠢的： marked by lack of ideas or intelligence</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>a movie that was derided for its vacuous dialogue  一部因为对白十分愚蠢而被嘲讽的电影</t>
-        </is>
-      </c>
+          <t>n. 不可预测的思想或行为： an erratic, unpredictable, or extravagant manifestation, action, or notion</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3407,15 +3391,21 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vagary</t>
+          <t>vague</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 不可预测的思想或行为： an erratic, unpredictable, or extravagant manifestation, action, or notion</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr"/>
+          <t>adj. 表达不清的： not clearly expressed
+adj. 轮廓不清晰的： lacking definite shape, form, or character</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>The diplomat gave as vague a reply as he could at the press conference.   外交官在记者招待会上尽其所能来含糊其辞。
+the vague outline of a building through the dense fog  浓雾中建筑物模糊的轮廓</t>
+        </is>
+      </c>
       <c r="D135" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3425,19 +3415,18 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>vague</t>
+          <t>valediction</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 表达不清的： not clearly expressed
-adj. 轮廓不清晰的： lacking definite shape, form, or character</t>
+          <t>n. 告别： an act of bidding farewell
+n. 告别词： an address or statement of farewell or leave-taking</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>The diplomat gave as vague a reply as he could at the press conference.   外交官在记者招待会上尽其所能来含糊其辞。
-the vague outline of a building through the dense fog  浓雾中建筑物模糊的轮廓</t>
+          <t>a valediction given by the college president upon his retirement  大学校长退休时的告别演说</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3449,18 +3438,18 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>valediction</t>
+          <t>valiant</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>n. 告别： an act of bidding farewell
-n. 告别词： an address or statement of farewell or leave-taking</t>
+          <t>adj. 勇敢的，英勇的： possessing or acting with bravery or boldness</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>a valediction given by the college president upon his retirement  大学校长退休时的告别演说</t>
+          <t xml:space="preserve">a valiant and moral knight  一个勇敢和有道德感的骑士
+Despite their valiant efforts, they lost the game.  </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3472,18 +3461,18 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>valiant</t>
+          <t>valid</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>adj. 勇敢的，英勇的： possessing or acting with bravery or boldness</t>
+          <t>adj. 逻辑上正确的： logically correct</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">a valiant and moral knight  一个勇敢和有道德感的骑士
-Despite their valiant efforts, they lost the game.  </t>
+          <t>Only further experiments will show whether your theory is valid.   只有进一步的实验才能验证你的理论是否正确。
+Your argument isn't valid because you're taking what should be the conclusion and using it as apremise.   你的论述逻辑上是错误的，因为你把本该是结论的东西当成了前提条件。</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3495,18 +3484,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>valid</t>
+          <t>vanquish</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 逻辑上正确的： logically correct</t>
+          <t>vt. 打败，征服： to defeat in a conflict or contest</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Only further experiments will show whether your theory is valid.   只有进一步的实验才能验证你的理论是否正确。
-Your argument isn't valid because you're taking what should be the conclusion and using it as apremise.   你的论述逻辑上是错误的，因为你把本该是结论的东西当成了前提条件。</t>
+          <t>vanquished his inner fear  战胜了他内心的恐惧</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3518,17 +3506,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vanquish</t>
+          <t>vapid</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>vt. 打败，征服： to defeat in a conflict or contest</t>
+          <t>adj. 无趣的，乏味的： lacking liveliness, animation, or interest</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>vanquished his inner fear  战胜了他内心的恐惧</t>
+          <t>a song with vapid lyrics  一首歌词乏味的歌曲</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3540,17 +3528,19 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vapid</t>
+          <t>vaporize</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>adj. 无趣的，乏味的： lacking liveliness, animation, or interest</t>
+          <t>vt. 使（液体）蒸发： to convert (as by the application of heat or by spraying) into vapor
+vt. 彻底消灭： to destroy by or as if by converting into vapor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>a song with vapid lyrics  一首歌词乏味的歌曲</t>
+          <t>gasify
+The entire fleet was vaporized.   整个舰队都被消灭了。</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3562,19 +3552,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>vaporize</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>vt. 使（液体）蒸发： to convert (as by the application of heat or by spraying) into vapor
-vt. 彻底消灭： to destroy by or as if by converting into vapor</t>
+          <t>n. 不一致，不和谐： a lack of agreement or harmony</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>gasify
-The entire fleet was vaporized.   整个舰队都被消灭了。</t>
+          <t>Persistent variance within the band eventually caused it to break up.   乐团中持续不断的分歧最终导致了它的解散。</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3586,17 +3574,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>variegated</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>n. 不一致，不和谐： a lack of agreement or harmony</t>
+          <t>adj. 杂色的，斑驳的： having discrete markings of different colors</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Persistent variance within the band eventually caused it to break up.   乐团中持续不断的分歧最终导致了它的解散。</t>
+          <t>variegated costumes of the dancers in the nightclub  夜总会舞者身上色彩斑驳的服装</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3608,17 +3596,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>variegated</t>
+          <t>varnish</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>adj. 杂色的，斑驳的： having discrete markings of different colors</t>
+          <t>vt. 上清漆，使有光泽： to give a smooth and glossy finish to</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>variegated costumes of the dancers in the nightclub  夜总会舞者身上色彩斑驳的服装</t>
+          <t>Don't sit on that chair - I've just varnished it.   不要坐在那张椅子上——我刚刚上过漆。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3630,17 +3618,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>varnish</t>
+          <t>vault</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>vt. 上清漆，使有光泽： to give a smooth and glossy finish to</t>
+          <t>vi. 跳起，跳跃： to propel oneself upward or forward into the air
+vi. 一跃而至： to accomplish something as if by leaping suddenly or vigorously</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Don't sit on that chair - I've just varnished it.   不要坐在那张椅子上——我刚刚上过漆。</t>
+          <t>The horse vaulted over the obstacle with ease.  骏马轻松地跃过障碍物。
+She vaulted into a position of wealth.   她一夜暴富。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3652,19 +3642,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vault</t>
+          <t>vaunt</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>vi. 跳起，跳跃： to propel oneself upward or forward into the air
-vi. 一跃而至： to accomplish something as if by leaping suddenly or vigorously</t>
+          <t>vi. 吹嘘： to speak boastfully</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>The horse vaulted over the obstacle with ease.  骏马轻松地跃过障碍物。
-She vaulted into a position of wealth.   她一夜暴富。</t>
+          <t>vaunted his country’s military might  吹嘘他的国家的军事实力</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3676,17 +3664,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vaunt</t>
+          <t>veer</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vi. 吹嘘： to speak boastfully</t>
+          <t>v. 转向，改变航线： to change direction or course</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>vaunted his country’s military might  吹嘘他的国家的军事实力</t>
+          <t>He veered the car abruptly to the right to avoid a collision.   他向右猛打方向盘以避免撞击</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3698,17 +3686,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>veer</t>
+          <t>vehement</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>v. 转向，改变航线： to change direction or course</t>
+          <t>adj. （情感）强烈的，热情的： having or expressing great depth of feeling</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>He veered the car abruptly to the right to avoid a collision.   他向右猛打方向盘以避免撞击</t>
+          <t>a vehement defender of the rights of minorities  一个立场强烈的少数民族维权者</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3720,17 +3708,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vehement</t>
+          <t>venal</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. （情感）强烈的，热情的： having or expressing great depth of feeling</t>
+          <t>adj. 容易贪污受贿的： open to corrupt influence and especially bribery</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a vehement defender of the rights of minorities  一个立场强烈的少数民族维权者</t>
+          <t>a judge who is known for being venal and easily bought  一名因为贪污和容易收买而闻名的法官</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3742,17 +3730,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>venal</t>
+          <t>vendor</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 容易贪污受贿的： open to corrupt influence and especially bribery</t>
+          <t>n. 小贩，商贩： one that sells or vends</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>a judge who is known for being venal and easily bought  一名因为贪污和容易收买而闻名的法官</t>
+          <t>We're thinking of making a deal with that other software vendor.   我们在考虑和那个软件供应商的交易。</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3764,19 +3752,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vendor</t>
+          <t>veneer</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>n. 小贩，商贩： one that sells or vends</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>We're thinking of making a deal with that other software vendor.   我们在考虑和那个软件供应商的交易。</t>
-        </is>
-      </c>
+          <t>n. 薄木板，用以贴在家具外面的饰面板： a thin surface layer, as of finely grained wood, glued to abase of inferior material
+vt. 粉饰（不好的东西）： to cover over with a veneer; especially to conceal (as a defect of character)under a superficial and deceptive attractiveness</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3786,16 +3771,19 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>veneer</t>
+          <t>venerate</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>n. 薄木板，用以贴在家具外面的饰面板： a thin surface layer, as of finely grained wood, glued to abase of inferior material
-vt. 粉饰（不好的东西）： to cover over with a veneer; especially to conceal (as a defect of character)under a superficial and deceptive attractiveness</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
+          <t>vt. 尊敬： to regard with reverential respect or with admiring deference</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>She is venerated by the public as a saint.   她被当作圣人，受万众景仰。</t>
+        </is>
+      </c>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3805,17 +3793,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>venerate</t>
+          <t>venial</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>vt. 尊敬： to regard with reverential respect or with admiring deference</t>
+          <t>adj. 可宽恕的： easily excused or forgiven</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>She is venerated by the public as a saint.   她被当作圣人，受万众景仰。</t>
+          <t>Taking the restaurant's menu as a souvenir seems like a venial offense.   把餐厅的菜单当成纪念品带走似乎是一个可以宽恕的罪行。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3827,44 +3815,22 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>venial</t>
+          <t>venom</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
-        <is>
-          <t>adj. 可宽恕的： easily excused or forgiven</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Taking the restaurant's menu as a souvenir seems like a venial offense.   把餐厅的菜单当成纪念品带走似乎是一个可以宽恕的罪行。</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>venom</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
         <is>
           <t>n. 毒液： poisonous matter normally secreted by some animals as snakes, scorpions, or bees
 n. 恶意，恶毒的用心： the desire to cause pain for the satisfaction of doing harm</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>an antidote to snake venom  蛇毒的解药
 She spoke of him with venom in her voice.  她的评论怀揣着恶意。</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_9.xlsx
+++ b/result/生词本导入模版_9.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,41 +434,41 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>tactless</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>adj. 不机智的，笨拙的： bluntly inconsiderate or indiscreet.</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>tactless comments  不明智的评论</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>talisman</t>
+          <t>tactless</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>n. 护身符： something worn or kept to bring good luck or keep away evil</t>
+          <t>adj. 不机智的，笨拙的： bluntly inconsiderate or indiscreet.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A pendant of white nephrite jade is often worn by Indians as a talisman to ward off heart disease.  印度人通常戴一串软玉项链防止心脏病发作。</t>
+          <t>tactless comments  不明智的评论</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -468,15 +480,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>taint</t>
+          <t>talisman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vt. （品质）污损： to affect slightly with something morally bad or undesirable</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>n. 护身符： something worn or kept to bring good luck or keep away evil</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A pendant of white nephrite jade is often worn by Indians as a talisman to ward off heart disease.  印度人通常戴一串软玉项链防止心脏病发作。</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -486,43 +502,39 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>taint</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>vt. （品质）污损： to affect slightly with something morally bad or undesirable</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>tamper</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>vi. 恶意窜改，损害： to handle thoughtlessly, ignorantly, or mischievously
 v. 玩弄： to tinker with rashly or foolishly</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>tamper with tradition  坏了规矩
 Don't tamper with my feelings.   不要玩弄我的感情。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>tangent</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>n. / adj. 离题（的），不相关（的）： diverging from an original purpose of course: irrelevant</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>tangent remarks  不相关的评论</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -532,40 +544,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>tangent</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>n. / adj. 离题（的），不相关（的）： diverging from an original purpose of course: irrelevant</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>tangent remarks  不相关的评论</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>tangible</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>adj. 可感知的： capable of being perceived
 adj. 确凿的， 真实的： possible to be treated as fact; real or concrete</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>tangible evidence  确凿的证据</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>tangy</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>adj. 刺激的： having a powerfully stimulating odor or flavor</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>a tangy sauce with a strong aftertaste  味道很刺激的酱料，回味无穷</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -577,17 +589,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tantalize</t>
+          <t>tangy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vt. 激起，挑逗： to excite (another) by exposing something desirable while keeping it out of reach</t>
+          <t>adj. 刺激的： having a powerfully stimulating odor or flavor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>He was tantalized by the possibility of earning a lot of money quickly.   有人用迅速致富挑逗他。</t>
+          <t>a tangy sauce with a strong aftertaste  味道很刺激的酱料，回味无穷</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -599,17 +611,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tantamount</t>
+          <t>tantalize</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adj. 等价的，与…相等的： equivalent in value, significance, or effect</t>
+          <t>vt. 激起，挑逗： to excite (another) by exposing something desirable while keeping it out of reach</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a relationship tantamount to marriage  到了谈婚论嫁地步的关系</t>
+          <t>He was tantalized by the possibility of earning a lot of money quickly.   有人用迅速致富挑逗他。</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -621,17 +633,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tantrum</t>
+          <t>tantamount</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>n. 勃然大怒，发脾气： a fit of bad temper</t>
+          <t>adj. 等价的，与…相等的： equivalent in value, significance, or effect</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>had a tantrum  大发脾气</t>
+          <t>a relationship tantamount to marriage  到了谈婚论嫁地步的关系</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -643,67 +655,67 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>tantrum</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n. 勃然大怒，发脾气： a fit of bad temper</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>had a tantrum  大发脾气</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>taper</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>vt.（使）逐渐变细： to become gradually narrower or thinner toward one end
 v. 逐渐减少，减弱： to diminish or lessen gradually</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>taper to a point  逐渐变成为一点
 The storm finally tapered off.  风暴逐渐平静了。</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>tardy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>adj. 缓慢的，迟缓的： moving slowly: sluggish
 adj. 延后的，迟的： delayed beyond the expected or proper time</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>He was tardy to work.   他做事拖拖拉拉。
 a tardy arrival  迟到</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>tarnish</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>vt. 玷污： to affect slightly with something morally bad or undesirable</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>an arrest for shoplifting tarnished her reputation  因在商店行窃被捕玷污了她的声望</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -713,17 +725,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tasty</t>
+          <t>tarnish</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>adj. 美味的，令人愉悦的： giving pleasure or contentment to the mind or senses</t>
+          <t>vt. 玷污： to affect slightly with something morally bad or undesirable</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>the tasty prospect of getting his revenge  报仇成功的诱人前景</t>
+          <t>an arrest for shoplifting tarnished her reputation  因在商店行窃被捕玷污了她的声望</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -735,17 +747,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tatty</t>
+          <t>tasty</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 破旧的，褴褛的： somewhat worn, shabby, or dilapidated</t>
+          <t>adj. 美味的，令人愉悦的： giving pleasure or contentment to the mind or senses</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a tatty shirt  破旧的衬衣</t>
+          <t>the tasty prospect of getting his revenge  报仇成功的诱人前景</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -757,17 +769,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>taunt</t>
+          <t>tatty</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>vt. 嘲弄性质疑，挑衅： to reproach or challenge in a mocking or insulting manner: jeer at</t>
+          <t>adj. 破旧的，褴褛的： somewhat worn, shabby, or dilapidated</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>The boys continually taunted each other.   男孩子们互相挑衅。</t>
+          <t>a tatty shirt  破旧的衬衣</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -779,43 +791,43 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>taunt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>vt. 嘲弄性质疑，挑衅： to reproach or challenge in a mocking or insulting manner: jeer at</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The boys continually taunted each other.   男孩子们互相挑衅。</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>taut</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>adj. 紧绷的： not loose or flabby
 adj. 整洁的： kept in proper order or condition, kept in trim shape; neat and tidy</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>taut muscles  紧实的肌肉
 a taunt ship  保养得不错的船</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>tawdry</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>adj. 俗丽的： cheap and gaudy in appearance or quality; ignoble</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>a tawdry attempt to smear his opponent  企图污蔑对手的下三滥的手段</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -825,17 +837,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>taxing</t>
+          <t>tawdry</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>adj. 繁重的，费力的： requiring much time, effort, or careful attention</t>
+          <t>adj. 俗丽的： cheap and gaudy in appearance or quality; ignoble</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The journey proved to be very taxing.  旅途很艰辛。</t>
+          <t>a tawdry attempt to smear his opponent  企图污蔑对手的下三滥的手段</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -847,17 +859,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tedious</t>
+          <t>taxing</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>adj. 冗长乏味的： tiresome because of length or dullness: boring</t>
+          <t>adj. 繁重的，费力的： requiring much time, effort, or careful attention</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a tedious public ceremony  冗长无聊的公开仪式</t>
+          <t>The journey proved to be very taxing.  旅途很艰辛。</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -869,43 +881,43 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>tedious</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>adj. 冗长乏味的： tiresome because of length or dullness: boring</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>a tedious public ceremony  冗长无聊的公开仪式</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>teeter</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>vi. 蹒跚，不稳定的行走： to move unsteadily: wobble
 v. 犹豫不决： to show uncertainty about the right course of action</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>She teetered down the street in her high heels.  她穿着高跟鞋，在街上摇摇欲坠。
 was teetering on the brink of making a decision about college</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>telling</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>adj. 有效的，显著的： effective, expressive</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>the most telling evidence  最有力的证据</t>
-        </is>
-      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -915,17 +927,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>temerity</t>
+          <t>telling</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. 鲁莽，冒失： foolhardy disregard of danger; recklessness</t>
+          <t>adj. 有效的，显著的： effective, expressive</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>She was punished for his temerity.   她因冒失迟到了苦头。</t>
+          <t>the most telling evidence  最有力的证据</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -937,17 +949,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>temporize</t>
+          <t>temerity</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>v. 行动躲躲闪闪以争取时间、躲避争论等： to act evasively in order to gain time, avoid argument, orpostpone a decision</t>
+          <t>n. 鲁莽，冒失： foolhardy disregard of danger; recklessness</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>“Colonial officials .   .   .   ordered to enforce unpopular enactments, tended to temporize, to find excuses forevasion”(J.  H.   Parry) “被命令来执行不受欢迎法案的殖民地官员们倾向于敷衍了事，去寻找逃避的理由”(J.  H.  帕里)</t>
+          <t>She was punished for his temerity.   她因冒失迟到了苦头。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -959,43 +971,43 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>temporize</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>v. 行动躲躲闪闪以争取时间、躲避争论等： to act evasively in order to gain time, avoid argument, orpostpone a decision</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>“Colonial officials .   .   .   ordered to enforce unpopular enactments, tended to temporize, to find excuses forevasion”(J.  H.   Parry) “被命令来执行不受欢迎法案的殖民地官员们倾向于敷衍了事，去寻找逃避的理由”(J.  H.  帕里)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>temperate</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>adj. 言行举止有分寸的： avoiding extremes in behavior or expression
 adj. 有节制的： given to or marked by restraint in the satisfaction of one's appetites</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>rather temperate in his appraisal of the movie, calling it good but not great  对于电影的赞赏很适度，说其“还好”而不是“很棒”
 a soft-spoken, serious-minded person of temperate habits  一个说话温和、认真严肃的人，兴趣爱好都很适度</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>tempestuous</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>adj. 突然且剧烈的变化： marked by sudden or violent disturbance</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>In terms of social change, the 1960s are generally considered the most tempestuous decade in recentAmerican history.   就社会变革来说，20 世纪 60 年代是近现代美国历史上最动荡的十年。</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1005,17 +1017,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tenable</t>
+          <t>tempestuous</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 有据可依的，无懈可击的： capable of being held or defended; reasonable</t>
+          <t>adj. 突然且剧烈的变化： marked by sudden or violent disturbance</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a tenable theory  一个站得住脚的理论 || a tenable outpost  一个守得住的前哨</t>
+          <t>In terms of social change, the 1960s are generally considered the most tempestuous decade in recentAmerican history.   就社会变革来说，20 世纪 60 年代是近现代美国历史上最动荡的十年。</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1027,43 +1039,43 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>tenable</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>adj. 有据可依的，无懈可击的： capable of being held or defended; reasonable</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>a tenable theory  一个站得住脚的理论 || a tenable outpost  一个守得住的前哨</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>tenacious</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>adj. 顽固的，不屈不挠的： persistent in maintaining something valued or habitual
 adj. 粘着的： tending to adhere to objects upon contact</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>a tenacious advocate of civil rights  公民权的坚定捍卫者
 You'll have enough time getting those tenacious gum off of your wool sweater.   你有足够的时候去把羊毛毛衣上面那块粘着的泡泡糖弄下来。</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>tendentious</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>adj. 有偏见的： marked by a tendency in favor of a particular point of view: biased</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>He made some extremely tendentious remarks.  他有些评论颇具偏向性。</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1073,43 +1085,43 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>tendentious</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>adj. 有偏见的： marked by a tendency in favor of a particular point of view: biased</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>He made some extremely tendentious remarks.  他有些评论颇具偏向性。</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>tender</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>vt. 正式提出： to offer formally
 adj. 考虑周到的，关心同情的： having or marked by sympathy and consideration for others</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>tender a letter of resignation  正式提交辞职信
 an especially tender teacher who loves having kids with special educational needs in her class  特 别 无微不至的老师，爱着那些需要特别教育的孩子们</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>tenuous</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>adj. 没有实际内容的： having little substance; flimsy</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>a tenuous argument  站不住脚的论点</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1119,17 +1131,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tepid</t>
+          <t>tenuous</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adj. 不太热心的： showing little or no interest or enthusiasm</t>
+          <t>adj. 没有实际内容的： having little substance; flimsy</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a tepid response  冷漠的回应 || the tepid conservatism of the fifties  五十年代那种温和的保守主义</t>
+          <t>a tenuous argument  站不住脚的论点</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1141,17 +1153,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>terminology</t>
+          <t>tepid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>n. 专业术语： the special terms or expressions of a particular group or field</t>
+          <t>adj. 不太热心的： showing little or no interest or enthusiasm</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>the terminology favored by sportscasters  体育节目转播员喜欢用的那些术语 || medical terminology thatcan be hard for the patient to understand  那些病人们难以理解的医学术语</t>
+          <t>a tepid response  冷漠的回应 || the tepid conservatism of the fifties  五十年代那种温和的保守主义</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1163,17 +1175,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>terminus</t>
+          <t>terminology</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>n. 终点，终点站： the final point; the end</t>
+          <t>n. 专业术语： the special terms or expressions of a particular group or field</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Stockholm is the terminus for the southbound train.  斯德哥尔摩是南向去的列车的终点站。</t>
+          <t>the terminology favored by sportscasters  体育节目转播员喜欢用的那些术语 || medical terminology thatcan be hard for the patient to understand  那些病人们难以理解的医学术语</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1185,17 +1197,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>terror</t>
+          <t>terminus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 极度恐惧： a state of intense fear</t>
+          <t>n. 终点，终点站： the final point; the end</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Many civilians fled in terror.   很多黎民百姓极度恐慌逃难去了。</t>
+          <t>Stockholm is the terminus for the southbound train.  斯德哥尔摩是南向去的列车的终点站。</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1207,17 +1219,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>terse</t>
+          <t>terror</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>adj. 简洁的，简明的： brief and to the point; effectively concise</t>
+          <t>n. 极度恐惧： a state of intense fear</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>dismissed me with a terse “no” 用一个简单的“不”把我打发了</t>
+          <t>Many civilians fled in terror.   很多黎民百姓极度恐慌逃难去了。</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1229,17 +1241,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>testimony</t>
+          <t>terse</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 证词，声明： firsthand authentication of a fact</t>
+          <t>adj. 简洁的，简明的： brief and to the point; effectively concise</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The jury heard 10 days of testimony.   陪审团进行了 10 天的听证。</t>
+          <t>dismissed me with a terse “no” 用一个简单的“不”把我打发了</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1251,17 +1263,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>testy</t>
+          <t>testimony</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>adj. 易怒的，暴躁的： easily annoyed: irritable</t>
+          <t>n. 证词，声明： firsthand authentication of a fact</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>That coworker would be easier to get along with if she weren't so testy all the time.   如果那个同伴不是一直那么暴怒的话，她还是挺好相处的。</t>
+          <t>The jury heard 10 days of testimony.   陪审团进行了 10 天的听证。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1273,43 +1285,43 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>testy</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>adj. 易怒的，暴躁的： easily annoyed: irritable</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>That coworker would be easier to get along with if she weren't so testy all the time.   如果那个同伴不是一直那么暴怒的话，她还是挺好相处的。</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>tether</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>vt.（用绳，铁链）拴系，束缚： to fasten or restrain by or as if by a tether
 n. 能力或忍耐力的极限： the limit of one's strength or resources</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>They tethered the horses in the shade.  他们把马摔在棚子里
 drought-stricken farmers at the end of their tether  受干旱打击的农民忍无可忍</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>theatrical</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>adj. 做作的，夸张的，矫揉造作的： marked by exaggerated self-display and unnatural behavior</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>assumed a theatrical pose  摆出夸张的姿势</t>
-        </is>
-      </c>
       <c r="D40" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1319,17 +1331,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>therapeutic</t>
+          <t>theatrical</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 治疗的： of or relating to the treatment of disease or disorders by remedial agents or methods</t>
+          <t>adj. 做作的，夸张的，矫揉造作的： marked by exaggerated self-display and unnatural behavior</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Gentle exercise can be therapeutic for hospital patients.  适量的运动对病人恢复有好处。</t>
+          <t>assumed a theatrical pose  摆出夸张的姿势</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1341,69 +1353,69 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>therapeutic</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>adj. 治疗的： of or relating to the treatment of disease or disorders by remedial agents or methods</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gentle exercise can be therapeutic for hospital patients.  适量的运动对病人恢复有好处。</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>thorny</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>adj. 多刺的： full of thorns
 adj. 棘手的： full of difficulties or controversial points : ticklish</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Stay out of the thorny brambles unless you want a ton of scratches.   离那些荆棘丛远一点，除非你想满身都是窟窿。
 a thorny problem  棘手的问题</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>threadbare</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>adj. 陈腐的： overused to the point of being worn out; hackneyed
 adj. 贫穷的： lacking money or material possessions
 adj. 破烂的： worn or torn into or as if into rags</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>a novel filled with nothing but threadbare clichés  一部满是陈词滥调的小说
 never knew that she had so many threadbare relatives until she won the lottery  赢 了 彩 票之 后 才知 道她有这么多穷亲戚
 I loved that threadbare shirt, but after 10 years of wear, it was time to throw it away.  我 很 喜 欢 那 件 旧旧的衬衣，但是已经穿了 10 年了，是该扔了。</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>throng</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>vi./n. 大量聚集： to crowd together in great numbers</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>commuters thronging the MTR platform  持月票的乘客拥向地铁站</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1413,15 +1425,19 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>thwart</t>
+          <t>throng</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>vt. 阻挠： to oppose successfully</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>vi./n. 大量聚集： to crowd together in great numbers</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>commuters thronging the MTR platform  持月票的乘客拥向地铁站</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1431,43 +1447,39 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>thwart</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>vt. 阻挠： to oppose successfully</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>ticklish</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>adj. 易怒的： easily offended or upset; touchy
 adj. 棘手的，对技巧要求高的： requiring exceptional skill or caution in performance or handling</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>ticklish about his baldness  大家一提起他的秃头，他就暴怒
 Trying to tell him that his zipper is down without embarrassing him will be a ticklish task.  如 何 体 面 得体地提醒他拉链没关好是一个技巧活儿。</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>tiff</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>n./v. 小争吵： a petty quarrel</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>got into a little tiff about what color sheets to buy for their bed  对于买什么颜色的床单争吵</t>
-        </is>
-      </c>
       <c r="D47" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1477,17 +1489,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>tightfisted</t>
+          <t>tiff</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>adj. 吝啬的： close-fisted; stingy</t>
+          <t>n./v. 小争吵： a petty quarrel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>The company is pretty tightfisted when it comes to bonuses.  这个公司分红的时候很吝啬。</t>
+          <t>got into a little tiff about what color sheets to buy for their bed  对于买什么颜色的床单争吵</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1499,17 +1511,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>timeworn</t>
+          <t>tightfisted</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 陈腐的： hackneyed, stale</t>
+          <t>adj. 吝啬的： close-fisted; stingy</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>timeworn jokes  老掉牙的笑话</t>
+          <t>The company is pretty tightfisted when it comes to bonuses.  这个公司分红的时候很吝啬。</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1521,17 +1533,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>timid</t>
+          <t>timeworn</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj. 胆小的，不自信的： lacking in courage or self-confidence</t>
+          <t>adj. 陈腐的： hackneyed, stale</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>He gave her a timid smile.   他给了她一个羞赧的微笑。</t>
+          <t>timeworn jokes  老掉牙的笑话</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1543,17 +1555,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>timorous</t>
+          <t>timid</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 胆小的： of a timid disposition: fearful</t>
+          <t>adj. 胆小的，不自信的： lacking in courage or self-confidence</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>be as timorous as a rabbit  像兔子一样胆小</t>
+          <t>He gave her a timid smile.   他给了她一个羞赧的微笑。</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1565,17 +1577,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>tinge</t>
+          <t>timorous</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vt. 给…着上少量的色彩： to color with a slight shade or stain; tint</t>
+          <t>adj. 胆小的： of a timid disposition: fearful</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>just slightly tinge the frosting with yellow food coloring to give it a lemony look  略微在霜糖表面加一点黄色色素，有一点柠檬的感觉就可以了</t>
+          <t>be as timorous as a rabbit  像兔子一样胆小</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1587,17 +1599,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tinker</t>
+          <t>tinge</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vi. 乱修，乱调整： to handle thoughtlessly, ignorantly, or mischievously</t>
+          <t>vt. 给…着上少量的色彩： to color with a slight shade or stain; tint</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>tinkering with the engine  胡乱调整发动机</t>
+          <t>just slightly tinge the frosting with yellow food coloring to give it a lemony look  略微在霜糖表面加一点黄色色素，有一点柠檬的感觉就可以了</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1609,17 +1621,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tint</t>
+          <t>tinker</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>v. 涂浅色，微染： apply a usually slight or pale coloration to</t>
+          <t>vi. 乱修，乱调整： to handle thoughtlessly, ignorantly, or mischievously</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>tint with only one color  只用一种颜色染色</t>
+          <t>tinkering with the engine  胡乱调整发动机</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1631,17 +1643,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>tirade</t>
+          <t>tint</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>n. 长篇抨击性演讲： a long angry or violent speech, usually of a censorious or denunciatory nature;a diatribe</t>
+          <t>v. 涂浅色，微染： apply a usually slight or pale coloration to</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>a tirade of angry protest  一个表达愤怒的抗议的长篇抨击性演讲</t>
+          <t>tint with only one color  只用一种颜色染色</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1653,17 +1665,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>toady</t>
+          <t>tirade</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>n./v. 马屁精，拍马屁： one who flatters in the hope of gaining favors</t>
+          <t>n. 长篇抨击性演讲： a long angry or violent speech, usually of a censorious or denunciatory nature;a diatribe</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>He criticized that I was a toady.   他批评说我是一个马屁精。</t>
+          <t>a tirade of angry protest  一个表达愤怒的抗议的长篇抨击性演讲</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1675,17 +1687,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>tonic</t>
+          <t>toady</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 滋补的，有益健康的： producing or stimulating physical, mental, or emotional vigor; beneficialto the health of body or mind</t>
+          <t>n./v. 马屁精，拍马屁： one who flatters in the hope of gaining favors</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>tonic medicine  补药</t>
+          <t>He criticized that I was a toady.   他批评说我是一个马屁精。</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1697,67 +1709,67 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>tonic</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>adj. 滋补的，有益健康的： producing or stimulating physical, mental, or emotional vigor; beneficialto the health of body or mind</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>tonic medicine  补药</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>torpid</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>adj. 麻木的，没有知觉的： lacking in sensation or feeling
 adj. 迟钝的，行动迟缓的： slow to move or act</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>My tongue and throat remained torpid for a time following the endoscopy.   胃镜检查之后，我的舌头和喉咙一直是麻木的。
 a torpid sloth that refused to budge off its tree branch  趴在树枝上一动不动的树獭</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>torpor</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t>n. 缺乏兴趣： lack of interest or concern
 n. （肉体或精神上的）迟钝： physical or mental inertness</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>After a lifetime of setbacks, defeats, and failures, he could only greet the latest bad news with a resignedfatalism and dull torpor.  一生都充满了挫折、失败，他只能用宿命论和麻木不仁来迎接又一次的坏消息。
 Following Thanksgiving dinner, we spent the rest of the day lounging about in a contented torpor.  吃完感恩节晚餐后，我们慵懒地靠在沙发上打发剩下的时间。</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>torrential</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>adj. 急流的： caused by or resulting from action of rapid streams</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>a torrential rain  倾盆大雨</t>
-        </is>
-      </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1767,43 +1779,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>torrential</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>adj. 急流的： caused by or resulting from action of rapid streams</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a torrential rain  倾盆大雨</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>torrid</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>adj. 酷热的： intensely hot
 adj. 热情的，情感深厚的： having or expressing great depth of feeling</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>the dry, torrid summers in southern Arizona  南亚利桑那州干燥、炎热的夏天
 torrid love affair  炙热的爱</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>tortuous</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>adj. 转弯抹角的： marked by devious or indirect tactics: crooked, tricky</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>a tortuous path  一条蜿蜒的道路</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1813,17 +1825,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tout</t>
+          <t>tortuous</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 极力赞扬： to promote or praise energetically; publicize</t>
+          <t>adj. 转弯抹角的： marked by devious or indirect tactics: crooked, tricky</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>to tout victory in the war  鼓吹战果</t>
+          <t>a tortuous path  一条蜿蜒的道路</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1835,17 +1847,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>toy</t>
+          <t>tout</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vi. 草率或不认真地对待： to handle thoughtlessly, ignorantly, or mischievously</t>
+          <t>vt. 极力赞扬： to promote or praise energetically; publicize</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>That microscope is a delicate instrument, not something to be toyed with.   那个显微镜是精密仪器，不是随随便便的一个玩具。</t>
+          <t>to tout victory in the war  鼓吹战果</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1857,17 +1869,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tractable</t>
+          <t>toy</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>adj. 易驾驭的，温顺的： readily giving in to the command or authority of another</t>
+          <t>vi. 草率或不认真地对待： to handle thoughtlessly, ignorantly, or mischievously</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>a tractable horse  一匹温顺的马</t>
+          <t>That microscope is a delicate instrument, not something to be toyed with.   那个显微镜是精密仪器，不是随随便便的一个玩具。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1879,17 +1891,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tranquility</t>
+          <t>tractable</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>n. 宁静，淡定： a state of freedom from storm or disturbance</t>
+          <t>adj. 易驾驭的，温顺的： readily giving in to the command or authority of another</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>enjoyed the tranquillity of the snow-covered field at dusk  享受傍晚时分被雪覆盖的田野的静谧</t>
+          <t>a tractable horse  一匹温顺的马</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1901,17 +1913,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>transcend</t>
+          <t>tranquility</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vt. 超越，超过极限： to rise above or go beyond the limits of</t>
+          <t>n. 宁静，淡定： a state of freedom from storm or disturbance</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>a person who believes that any true understanding of God transcends human intelligence  认 为 对 上 帝的真正理解是超越人类智商极限的人</t>
+          <t>enjoyed the tranquillity of the snow-covered field at dusk  享受傍晚时分被雪覆盖的田野的静谧</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1923,17 +1935,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>transfigure</t>
+          <t>transcend</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>vt. 改变外观： to alter the outward appearance of; transform</t>
+          <t>vt. 超越，超过极限： to rise above or go beyond the limits of</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>transfigure the AutoCAD drawings with elegant symbols  用优美的符号使 AutoCAD  图变得美观</t>
+          <t>a person who believes that any true understanding of God transcends human intelligence  认 为 对 上 帝的真正理解是超越人类智商极限的人</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1945,17 +1957,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>transgress</t>
+          <t>transfigure</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vt. 违背，犯错： to fail to keep; to commit an offense</t>
+          <t>vt. 改变外观： to alter the outward appearance of; transform</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>don't even think about transgressing the drug laws of that Asian country, for punishments are severe andthere's nothing that our government can do to intervene  别指望违背亚洲国家的药品相关法，因为惩罚非常严厉，政府会尽全力干涉</t>
+          <t>transfigure the AutoCAD drawings with elegant symbols  用优美的符号使 AutoCAD  图变得美观</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1967,17 +1979,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>transient</t>
+          <t>transgress</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 短暂的，瞬时的： passing with time; transitory</t>
+          <t>vt. 违背，犯错： to fail to keep; to commit an offense</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>transient pleasure  短暂的快乐</t>
+          <t>don't even think about transgressing the drug laws of that Asian country, for punishments are severe andthere's nothing that our government can do to intervene  别指望违背亚洲国家的药品相关法，因为惩罚非常严厉，政府会尽全力干涉</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1989,17 +2001,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>transitory</t>
+          <t>transient</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>adj. 短暂的： existing or lasting only a short time; short-lived or temporary</t>
+          <t>adj. 短暂的，瞬时的： passing with time; transitory</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>most of life’s joys are transitory  尘世间的欢乐都是过眼烟云，转瞬即逝</t>
+          <t>transient pleasure  短暂的快乐</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2011,17 +2023,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>translucent</t>
+          <t>transitory</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>adj. 透明的： permitting the passage of light: clear, transparent</t>
+          <t>adj. 短暂的： existing or lasting only a short time; short-lived or temporary</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>translucent dewdrop  透明的露珠</t>
+          <t>most of life’s joys are transitory  尘世间的欢乐都是过眼烟云，转瞬即逝</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2033,40 +2045,40 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>translucent</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>adj. 透明的： permitting the passage of light: clear, transparent</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>translucent dewdrop  透明的露珠</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
           <t>transparent</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>adj. 透明的： capable of transmitting light
 adj. 没有歧义，清晰易懂的： not subject to misinterpretation or more than one interpretation</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>His meaning in leaving the conversation is transparent: he doesn't want to talk about his combatexperiences.   他结束这个话题的意图很明显：不想谈论当年参战的事。</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>travail</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>n./v. 辛苦劳动： work, especially when arduous or involving painful effort</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>writer’s literary travail  作家辛勤的文学创作 || Labor Day is the day on which we recognize those menand women who daily travail with little appreciation or compensation.  劳动节是我们向那些平日辛勤劳作但是很少受到大家关注和补偿的工人致敬的日子。</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2078,17 +2090,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>traverse</t>
+          <t>travail</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>vt. 横穿： to travel or pass across, over, or through</t>
+          <t>n./v. 辛苦劳动： work, especially when arduous or involving painful effort</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>The spider traversed the wall from end to end.   蜘蛛侠攀岩走壁。</t>
+          <t>writer’s literary travail  作家辛勤的文学创作 || Labor Day is the day on which we recognize those menand women who daily travail with little appreciation or compensation.  劳动节是我们向那些平日辛勤劳作但是很少受到大家关注和补偿的工人致敬的日子。</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2100,17 +2112,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>travesty</t>
+          <t>traverse</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>n./v. 拙劣的、嘲弄性模仿： an exaggerated or grotesque imitation, such as a parody of a literary work</t>
+          <t>vt. 横穿： to travel or pass across, over, or through</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>a travesty of his classmate’s manner  滑稽的模仿其他同学的举止</t>
+          <t>The spider traversed the wall from end to end.   蜘蛛侠攀岩走壁。</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2122,17 +2134,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>treacherous</t>
+          <t>travesty</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 背叛的： marked by betrayal of fidelity, confidence, or trust</t>
+          <t>n./v. 拙劣的、嘲弄性模仿： an exaggerated or grotesque imitation, such as a parody of a literary work</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>a treacherous ally  不忠的盟友</t>
+          <t>a travesty of his classmate’s manner  滑稽的模仿其他同学的举止</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2144,43 +2156,43 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>treacherous</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>adj. 背叛的： marked by betrayal of fidelity, confidence, or trust</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>a treacherous ally  不忠的盟友</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>trenchant</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>adj. 锐利的： keen, sharp
 adj. （言辞）一针见血的： vigorously effective and articulate</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Even the most trenchant sword could not sever the bonds of loyalty between them.  即 使 最 锋 利 的 刀剑也不能切断他们的忠诚。
 trenchant criticisms  一针见血的批评</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>trepidation</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>n. 恐惧，战栗： the emotion experienced in the presence or threat of danger; apprehension</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>trepidation about starting a new career  对开创一项新事业而感到恐惧</t>
-        </is>
-      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2190,17 +2202,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>trespass</t>
+          <t>trepidation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vi. 非法侵入，违反： to commit an offense</t>
+          <t>n. 恐惧，战栗： the emotion experienced in the presence or threat of danger; apprehension</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>I consider him to be trespassing against all of us when he trespasses against any one of us.  当 他 冒犯我们当中一个人的时候，他就冒犯了我们全部</t>
+          <t>trepidation about starting a new career  对开创一项新事业而感到恐惧</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2212,17 +2224,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tribute</t>
+          <t>trespass</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 颂词： a gift, payment, declaration, or other acknowledgment of gratitude, respect, or admiration</t>
+          <t>vi. 非法侵入，违反： to commit an offense</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>pay a high tribute to… 赞颂</t>
+          <t>I consider him to be trespassing against all of us when he trespasses against any one of us.  当 他 冒犯我们当中一个人的时候，他就冒犯了我们全部</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2234,17 +2246,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>trickle</t>
+          <t>tribute</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vi. 一滴滴地流，徐徐地流： to issue or fall in drops</t>
+          <t>n. 颂词： a gift, payment, declaration, or other acknowledgment of gratitude, respect, or admiration</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Tears trickled down her cheeks.   眼泪从她的脸上一滴一滴地流下。</t>
+          <t>pay a high tribute to… 赞颂</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2256,17 +2268,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>trite</t>
+          <t>trickle</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 陈腐的，陈词滥调的： hackneyed or boring from much use, not fresh or original</t>
+          <t>vi. 一滴滴地流，徐徐地流： to issue or fall in drops</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>“You win some, you lose some” is a trite expression.  “有得必有失”是老生常谈了。</t>
+          <t>Tears trickled down her cheeks.   眼泪从她的脸上一滴一滴地流下。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2278,17 +2290,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>trivial</t>
+          <t>trite</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. 琐碎的，无足轻重的： of little worth or importance</t>
+          <t>adj. 陈腐的，陈词滥调的： hackneyed or boring from much use, not fresh or original</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>why spend so much time on trivial decisions, like whether the cola should be regular or diet?为 什 么</t>
+          <t>“You win some, you lose some” is a trite expression.  “有得必有失”是老生常谈了。</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2300,17 +2312,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>truant</t>
+          <t>trivial</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj./ n./ vi. 逃避责任的： shirking responsibility; one who shirks duty</t>
+          <t>adj. 琐碎的，无足轻重的： of little worth or importance</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>play truant  逃学</t>
+          <t>why spend so much time on trivial decisions, like whether the cola should be regular or diet?为 什 么</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2322,17 +2334,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>truce</t>
+          <t>truant</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>n. 休战，休战协定： a suspension of fighting especially of considerable duration by agreement ofopposing forces</t>
+          <t>adj./ n./ vi. 逃避责任的： shirking responsibility; one who shirks duty</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>truce agreement  休战协议</t>
+          <t>play truant  逃学</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2344,43 +2356,43 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>truce</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>n. 休战，休战协定： a suspension of fighting especially of considerable duration by agreement ofopposing forces</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>truce agreement  休战协议</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>truculent</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>adj. 尖酸刻薄的： marked by harsh insulting language
 adj. 好战的： feeling or displaying eagerness to fight</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>a theater critic who was notorious for his titanically truculent reviews  一个以超大量尖酸刻薄言论著称的话剧评论家
 in an aggressively truculent manner  以好战的，进攻性的方式</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>trudge</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>vi. 吃力而笨拙地走： to move heavily or clumsily</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>trudge over hill  翻山越岭</t>
-        </is>
-      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2390,15 +2402,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>trumpet</t>
+          <t>trudge</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>v. 大声说出或宣告： to make known openly or publicly</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>vi. 吃力而笨拙地走： to move heavily or clumsily</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>trudge over hill  翻山越岭</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2408,19 +2424,15 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>truncate</t>
+          <t>trumpet</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>v. 截短（时间，程度）： to shorten by or as if by cutting off</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>a truncated version of the 11 o'clock newscast followed the awards show, which ran over its time slot  颁奖典礼之后缩短版的 11 点新闻节目，已经超出了预定时长</t>
-        </is>
-      </c>
+          <t>v. 大声说出或宣告： to make known openly or publicly</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2430,17 +2442,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>truss</t>
+          <t>truncate</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>v. 系紧，扎紧： to gather into a tight mass by means of a line or cord</t>
+          <t>v. 截短（时间，程度）： to shorten by or as if by cutting off</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>After stuffing the turkey, the chef quickly trussed it so the forcemeat wouldn't fall out during roasting.   把填料塞进火鸡后，大厨迅速把它扎紧防止在烘烤过程中肉馅掉出来。</t>
+          <t>a truncated version of the 11 o'clock newscast followed the awards show, which ran over its time slot  颁奖典礼之后缩短版的 11 点新闻节目，已经超出了预定时长</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2452,17 +2464,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>tumult</t>
+          <t>truss</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 骚动，暴动： a disorderly commotion or disturbance, a riot</t>
+          <t>v. 系紧，扎紧： to gather into a tight mass by means of a line or cord</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>His mind was in a tumult.  他心烦意乱。</t>
+          <t>After stuffing the turkey, the chef quickly trussed it so the forcemeat wouldn't fall out during roasting.   把填料塞进火鸡后，大厨迅速把它扎紧防止在烘烤过程中肉馅掉出来。</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2474,17 +2486,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>turbid</t>
+          <t>tumult</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>adj. 混浊的： deficient in clarity or purity</t>
+          <t>n. 骚动，暴动： a disorderly commotion or disturbance, a riot</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>a turbid stream  一条混浊的河</t>
+          <t>His mind was in a tumult.  他心烦意乱。</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2496,43 +2508,43 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>turbid</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>adj. 混浊的： deficient in clarity or purity</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>a turbid stream  一条混浊的河</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>turbulent</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>adj. 动荡的： marked by sudden or violent disturbance
 adj. 湍急的，汹涌的： marked by turmoil or disturbance especially of natural elements</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>a turbulent period in history  历史上动荡时期
 the turbulent rapids of the river were certainly daunting to those of us who were new to river rafting  湍急的流水必定让那些初玩漂流的人们吓得不轻</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>turgid</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>adj. 浮夸的，过分装饰的： excessively embellished in style or language</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>turgid prose  浮华的散文</t>
-        </is>
-      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2542,17 +2554,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>turmoil</t>
+          <t>turgid</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 骚动，混乱： a state or condition of extreme confusion, agitation, or commotion</t>
+          <t>adj. 浮夸的，过分装饰的： excessively embellished in style or language</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>My mind is in a turmoil.   我心里很乱。</t>
+          <t>turgid prose  浮华的散文</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2564,17 +2576,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>turncoat</t>
+          <t>turmoil</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 叛徒： one who switches to an opposing side or party; specifically: traitor</t>
+          <t>n. 骚动，混乱： a state or condition of extreme confusion, agitation, or commotion</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>He was labeled as a turncoat.   他是一个叛徒。</t>
+          <t>My mind is in a turmoil.   我心里很乱。</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2586,17 +2598,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>typo</t>
+          <t>turncoat</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 打字错误： an error in typed or typeset material</t>
+          <t>n. 叛徒： one who switches to an opposing side or party; specifically: traitor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>make one typo on the memo  在样张上打错一个字</t>
+          <t>He was labeled as a turncoat.   他是一个叛徒。</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2608,17 +2620,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>tyro</t>
+          <t>typo</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 新手，业余爱好者： a beginner in learning: novice</t>
+          <t>n. 打字错误： an error in typed or typeset material</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>a tyro in the art of piano  钢琴界的新手</t>
+          <t>make one typo on the memo  在样张上打错一个字</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2630,17 +2642,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ubiquitous</t>
+          <t>tyro</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 无所不在的，普通的： being everywhere at the same time; often observed or encountered</t>
+          <t>n. 新手，业余爱好者： a beginner in learning: novice</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>The conflict between opposites is ubiquitous.   对立的冲突无所不在。</t>
+          <t>a tyro in the art of piano  钢琴界的新手</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2652,17 +2664,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>unassailable</t>
+          <t>ubiquitous</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>adj. 无可争辩的，无法否认的，不可亵渎的： not to be violated, criticized, or tampered with</t>
+          <t>adj. 无所不在的，普通的： being everywhere at the same time; often observed or encountered</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>an unassailable article  无可争辩的文章</t>
+          <t>The conflict between opposites is ubiquitous.   对立的冲突无所不在。</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2674,17 +2686,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>uncanny</t>
+          <t>unassailable</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>adj. 离奇的，奇异的： being so extraordinary or abnormal as to suggest powers which violate thelaws of nature</t>
+          <t>adj. 无可争辩的，无法否认的，不可亵渎的： not to be violated, criticized, or tampered with</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The silence was uncanny.   静得出奇</t>
+          <t>an unassailable article  无可争辩的文章</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2696,17 +2708,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>uncouth</t>
+          <t>uncanny</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>adj. 粗俗的，没有品位的： lacking in refinement or good taste</t>
+          <t>adj. 离奇的，奇异的： being so extraordinary or abnormal as to suggest powers which violate thelaws of nature</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>the movie's uncouth humor seemed to be purposely offensive  电影里一些恶俗的幽默貌似是故意的</t>
+          <t>The silence was uncanny.   静得出奇</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2718,43 +2730,43 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
+          <t>uncouth</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>adj. 粗俗的，没有品位的： lacking in refinement or good taste</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>the movie's uncouth humor seemed to be purposely offensive  电影里一些恶俗的幽默貌似是故意的</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>unctuous</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>adj. 油嘴滑舌的，谄媚的： overly or insincerely flattering
 adj. 夸张的，做作的： characterized by affected, exaggerated, or insincere earnestness</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>an unctuous appraisal of the musical talent shown by the boss's daughter  拍老板马屁，说他女儿音乐剧的才能非常卓越
 an unctuous effort to appear religious to the voters  过分做作想在选民面前表现地虔诚</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>underdog</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>n. 受害者，输家： a loser/ victim or predicted loser in a struggle or contest</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>She always supports for the underdog.  她经常支持受害者。</t>
-        </is>
-      </c>
       <c r="D105" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2764,17 +2776,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>undergird</t>
+          <t>underdog</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 加强，巩固…的底部： to support or strengthen from beneath</t>
+          <t>n. 受害者，输家： a loser/ victim or predicted loser in a struggle or contest</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>facts and statistics undergird his commentary  事实和数据支持了他的评论</t>
+          <t>She always supports for the underdog.  她经常支持受害者。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2786,17 +2798,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>undermine</t>
+          <t>undergird</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. 削弱，破坏： to weaken, injure, or impair, often by degrees or imperceptibly</t>
+          <t>vt. 加强，巩固…的底部： to support or strengthen from beneath</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>undermine a fortress  挖地道破坏堡垒</t>
+          <t>facts and statistics undergird his commentary  事实和数据支持了他的评论</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2808,17 +2820,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>underscore</t>
+          <t>undermine</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vt. 强调： to emphasize; stress</t>
+          <t>vt. 削弱，破坏： to weaken, injure, or impair, often by degrees or imperceptibly</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>underscore the value of education  强调教育的重要性</t>
+          <t>undermine a fortress  挖地道破坏堡垒</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2830,17 +2842,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>understate</t>
+          <t>underscore</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vt. 保守陈述： to state or present with restraint especially for effect</t>
+          <t>vt. 强调： to emphasize; stress</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>understate a problem  低调处理问题</t>
+          <t>underscore the value of education  强调教育的重要性</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2852,17 +2864,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>understudy</t>
+          <t>understate</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n. 替补演员： one who is prepared to act another's part or take over another's duties</t>
+          <t>vt. 保守陈述： to state or present with restraint especially for effect</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>be an understudy to sb  作为某人的替补</t>
+          <t>understate a problem  低调处理问题</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2874,15 +2886,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>unexceptionable</t>
+          <t>understudy</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>adj. 无懈可击的： not open to objection or criticism, beyond reproach</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
+          <t>n. 替补演员： one who is prepared to act another's part or take over another's duties</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>be an understudy to sb  作为某人的替补</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2892,19 +2908,15 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>unflappable</t>
+          <t>unexceptionable</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>adj. 镇定的，从容不迫的： not easily upset or excited</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>a unflappable general  一个镇定的将军</t>
-        </is>
-      </c>
+          <t>adj. 无懈可击的： not open to objection or criticism, beyond reproach</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2914,17 +2926,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ungainly</t>
+          <t>unflappable</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>adj. 笨拙的，不雅的： having or showing an inability to move in a graceful manner</t>
+          <t>adj. 镇定的，从容不迫的： not easily upset or excited</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ungainly movements  笨拙的动作</t>
+          <t>a unflappable general  一个镇定的将军</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2936,17 +2948,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>unimpeachable</t>
+          <t>ungainly</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>adj. 无可置疑的： beyond doubt; unquestionable</t>
+          <t>adj. 笨拙的，不雅的： having or showing an inability to move in a graceful manner</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>An unimpeachable evidence  无可置疑的证据</t>
+          <t>ungainly movements  笨拙的动作</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2958,17 +2970,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>unkempt</t>
+          <t>unimpeachable</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>adj. 凌乱的，无序的： lacking in order, neatness, and often cleanliness</t>
+          <t>adj. 无可置疑的： beyond doubt; unquestionable</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>unkempt hotel rooms  凌乱的酒店房间</t>
+          <t>An unimpeachable evidence  无可置疑的证据</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2980,17 +2992,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>unlettered</t>
+          <t>unkempt</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>adj. 未受教育的，文盲的： not adept at reading and writing; deficient in the knowledge that can beacquired from books. illiterate</t>
+          <t>adj. 凌乱的，无序的： lacking in order, neatness, and often cleanliness</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>unlettered sector of society  未受教育的地区</t>
+          <t>unkempt hotel rooms  凌乱的酒店房间</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3002,17 +3014,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>unpretentious</t>
+          <t>unlettered</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 低调的，谦逊的： lacking pretension or affectation; modest</t>
+          <t>adj. 未受教育的，文盲的： not adept at reading and writing; deficient in the knowledge that can beacquired from books. illiterate</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>an unpretentious virtuoso  一位谦虚的大师</t>
+          <t>unlettered sector of society  未受教育的地区</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3024,17 +3036,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>unproductive</t>
+          <t>unpretentious</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>adj. 徒然的，无效的： not productive; idle</t>
+          <t>adj. 低调的，谦逊的： lacking pretension or affectation; modest</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>her attempts to write a novel have been unproductive  她一直想写本小说的努力只是徒然</t>
+          <t>an unpretentious virtuoso  一位谦虚的大师</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3046,17 +3058,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>unrequited</t>
+          <t>unproductive</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 无报答的，无报酬的： not reciprocated or returned in kind</t>
+          <t>adj. 徒然的，无效的： not productive; idle</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>unrequited love  无报答的爱</t>
+          <t>her attempts to write a novel have been unproductive  她一直想写本小说的努力只是徒然</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3068,17 +3080,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>unruly</t>
+          <t>unrequited</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 难驾驭的，不守规矩的： difficult or impossible to discipline, control, or rule.</t>
+          <t>adj. 无报答的，无报酬的： not reciprocated or returned in kind</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>an unruly child  一个不听话的孩子</t>
+          <t>unrequited love  无报答的爱</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3090,17 +3102,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>untenable</t>
+          <t>unruly</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 防守不住的，站不住脚的： not able to be defended</t>
+          <t>adj. 难驾驭的，不守规矩的： difficult or impossible to discipline, control, or rule.</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>an untenable position  一个站不住脚的立场</t>
+          <t>an unruly child  一个不听话的孩子</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3112,17 +3124,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>untold</t>
+          <t>untenable</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 数不清的，无数的： too great or numerous to count</t>
+          <t>adj. 防守不住的，站不住脚的： not able to be defended</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>untold wealth  不知其数的财富</t>
+          <t>an untenable position  一个站不住脚的立场</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3134,17 +3146,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>untoward</t>
+          <t>untold</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 倒霉的，不吉利的： not favorable, unpropitious</t>
+          <t>adj. 数不清的，无数的： too great or numerous to count</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>an untoward incident  不幸的事故</t>
+          <t>untold wealth  不知其数的财富</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3156,43 +3168,43 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>untoward</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>adj. 倒霉的，不吉利的： not favorable, unpropitious</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>an untoward incident  不幸的事故</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>unwitting</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>adj. 不知道的，未觉察的： not knowing, unaware
 adj. 偶然的，并非有意的： happening by chance; not intended</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Please forgive my unwitting interruption of your conversation.  请原谅我无意间打断了你们的谈话。
 an unwitting mistake made in copying the material  在打印过程中一个无心的过失</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>unwonted</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>adj. 不习惯的，不寻常的： not habitual or ordinary; unusual</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>honored for the unwonted courage he showed in battle  因在战争中表现出的过人的勇气受到嘉奖</t>
-        </is>
-      </c>
       <c r="D125" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3202,17 +3214,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>upbraid</t>
+          <t>unwonted</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>vt.（严厉地）谴责，责骂： to reproach severely</t>
+          <t>adj. 不习惯的，不寻常的： not habitual or ordinary; unusual</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>upbraid sb.   with his ingratitude  责备某人忘恩负义</t>
+          <t>honored for the unwonted courage he showed in battle  因在战争中表现出的过人的勇气受到嘉奖</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3224,17 +3236,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>uphold</t>
+          <t>upbraid</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>vt. 支持，赞成： to give support to</t>
+          <t>vt.（严厉地）谴责，责骂： to reproach severely</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>determined to uphold her views in the face of all challenges  下定决心支持她的观点，尽管全世界都反对她</t>
+          <t>upbraid sb.   with his ingratitude  责备某人忘恩负义</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3246,11 +3258,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>urbane</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr"/>
+          <t>uphold</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>vt. 支持，赞成： to give support to</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>determined to uphold her views in the face of all challenges  下定决心支持她的观点，尽管全世界都反对她</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3260,19 +3280,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>usurp</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>vt. 篡夺，篡位： to seize and hold (the power or rights of another, for example) by force and withoutlegal authority</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>usurp the throne  篡夺王位</t>
-        </is>
-      </c>
+          <t>urbane</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3282,43 +3294,43 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>usurp</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>vt. 篡夺，篡位： to seize and hold (the power or rights of another, for example) by force and withoutlegal authority</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>usurp the throne  篡夺王位</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
           <t>utter</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B131" t="inlineStr">
         <is>
           <t>vt. 出声，说话： to articulate (words); pronounce or speak
 adj. 完全的，绝对的： complete; absolute; entire</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>She tried not to utter a sound as the doctor gave her a flu shot.   她克制自己不在打针的时候喊出来。
 be at an utter loss what to do  完全不知道怎样才好</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>vaccinate</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>v. 预防接种： to inoculate with a vaccine in order to produce immunity to an infectious disease, suchas diphtheria or typhus</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>vaccinate sb.   for smallpox  为某人接种牛痘疫苗以防天花</t>
-        </is>
-      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3328,40 +3340,40 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>vaccinate</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>v. 预防接种： to inoculate with a vaccine in order to produce immunity to an infectious disease, suchas diphtheria or typhus</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>vaccinate sb.   for smallpox  为某人接种牛痘疫苗以防天花</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
           <t>vacillate</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>vi. 犹豫不决： to waver in mind, will, or feeling: hesitate in choice of opinions or courses
 vi. 摇动，摇摆： to sway from one side to the other; oscillate</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Parents vacillate between saying no and yes, but actually neither response seems satisfactory to their children.   父母总是犹豫不定，不知道是该同意还是该反对，但是事实上哪种答案对他们的孩子都不理想。</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>vacuous</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>adj. 茫然的，愚蠢的： marked by lack of ideas or intelligence</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>a movie that was derided for its vacuous dialogue  一部因为对白十分愚蠢而被嘲讽的电影</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3373,15 +3385,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vagary</t>
+          <t>vacuous</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>n. 不可预测的思想或行为： an erratic, unpredictable, or extravagant manifestation, action, or notion</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>adj. 茫然的，愚蠢的： marked by lack of ideas or intelligence</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>a movie that was derided for its vacuous dialogue  一部因为对白十分愚蠢而被嘲讽的电影</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3391,112 +3407,108 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>vagary</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>n. 不可预测的思想或行为： an erratic, unpredictable, or extravagant manifestation, action, or notion</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>vague</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 表达不清的： not clearly expressed
 adj. 轮廓不清晰的： lacking definite shape, form, or character</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>The diplomat gave as vague a reply as he could at the press conference.   外交官在记者招待会上尽其所能来含糊其辞。
 the vague outline of a building through the dense fog  浓雾中建筑物模糊的轮廓</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>valediction</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>n. 告别： an act of bidding farewell
 n. 告别词： an address or statement of farewell or leave-taking</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>a valediction given by the college president upon his retirement  大学校长退休时的告别演说</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>valiant</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>adj. 勇敢的，英勇的： possessing or acting with bravery or boldness</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t xml:space="preserve">a valiant and moral knight  一个勇敢和有道德感的骑士
 Despite their valiant efforts, they lost the game.  </t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>valid</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adj. 逻辑上正确的： logically correct</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Only further experiments will show whether your theory is valid.   只有进一步的实验才能验证你的理论是否正确。
 Your argument isn't valid because you're taking what should be the conclusion and using it as apremise.   你的论述逻辑上是错误的，因为你把本该是结论的东西当成了前提条件。</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>vanquish</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>vt. 打败，征服： to defeat in a conflict or contest</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>vanquished his inner fear  战胜了他内心的恐惧</t>
-        </is>
-      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3506,17 +3518,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vapid</t>
+          <t>vanquish</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>adj. 无趣的，乏味的： lacking liveliness, animation, or interest</t>
+          <t>vt. 打败，征服： to defeat in a conflict or contest</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>a song with vapid lyrics  一首歌词乏味的歌曲</t>
+          <t>vanquished his inner fear  战胜了他内心的恐惧</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3528,43 +3540,43 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t>vapid</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>adj. 无趣的，乏味的： lacking liveliness, animation, or interest</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>a song with vapid lyrics  一首歌词乏味的歌曲</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
           <t>vaporize</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>vt. 使（液体）蒸发： to convert (as by the application of heat or by spraying) into vapor
 vt. 彻底消灭： to destroy by or as if by converting into vapor</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>gasify
 The entire fleet was vaporized.   整个舰队都被消灭了。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>n. 不一致，不和谐： a lack of agreement or harmony</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Persistent variance within the band eventually caused it to break up.   乐团中持续不断的分歧最终导致了它的解散。</t>
-        </is>
-      </c>
       <c r="D142" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3574,17 +3586,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>variegated</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>adj. 杂色的，斑驳的： having discrete markings of different colors</t>
+          <t>n. 不一致，不和谐： a lack of agreement or harmony</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>variegated costumes of the dancers in the nightclub  夜总会舞者身上色彩斑驳的服装</t>
+          <t>Persistent variance within the band eventually caused it to break up.   乐团中持续不断的分歧最终导致了它的解散。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3596,17 +3608,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>varnish</t>
+          <t>variegated</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>vt. 上清漆，使有光泽： to give a smooth and glossy finish to</t>
+          <t>adj. 杂色的，斑驳的： having discrete markings of different colors</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Don't sit on that chair - I've just varnished it.   不要坐在那张椅子上——我刚刚上过漆。</t>
+          <t>variegated costumes of the dancers in the nightclub  夜总会舞者身上色彩斑驳的服装</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3618,43 +3630,43 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>varnish</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>vt. 上清漆，使有光泽： to give a smooth and glossy finish to</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Don't sit on that chair - I've just varnished it.   不要坐在那张椅子上——我刚刚上过漆。</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>vault</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>vi. 跳起，跳跃： to propel oneself upward or forward into the air
 vi. 一跃而至： to accomplish something as if by leaping suddenly or vigorously</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The horse vaulted over the obstacle with ease.  骏马轻松地跃过障碍物。
 She vaulted into a position of wealth.   她一夜暴富。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>vaunt</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>vi. 吹嘘： to speak boastfully</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>vaunted his country’s military might  吹嘘他的国家的军事实力</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3664,17 +3676,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>veer</t>
+          <t>vaunt</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>v. 转向，改变航线： to change direction or course</t>
+          <t>vi. 吹嘘： to speak boastfully</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>He veered the car abruptly to the right to avoid a collision.   他向右猛打方向盘以避免撞击</t>
+          <t>vaunted his country’s military might  吹嘘他的国家的军事实力</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3686,17 +3698,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vehement</t>
+          <t>veer</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>adj. （情感）强烈的，热情的： having or expressing great depth of feeling</t>
+          <t>v. 转向，改变航线： to change direction or course</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>a vehement defender of the rights of minorities  一个立场强烈的少数民族维权者</t>
+          <t>He veered the car abruptly to the right to avoid a collision.   他向右猛打方向盘以避免撞击</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3708,17 +3720,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>venal</t>
+          <t>vehement</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>adj. 容易贪污受贿的： open to corrupt influence and especially bribery</t>
+          <t>adj. （情感）强烈的，热情的： having or expressing great depth of feeling</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>a judge who is known for being venal and easily bought  一名因为贪污和容易收买而闻名的法官</t>
+          <t>a vehement defender of the rights of minorities  一个立场强烈的少数民族维权者</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3730,17 +3742,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vendor</t>
+          <t>venal</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>n. 小贩，商贩： one that sells or vends</t>
+          <t>adj. 容易贪污受贿的： open to corrupt influence and especially bribery</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>We're thinking of making a deal with that other software vendor.   我们在考虑和那个软件供应商的交易。</t>
+          <t>a judge who is known for being venal and easily bought  一名因为贪污和容易收买而闻名的法官</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3752,38 +3764,38 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>vendor</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>n. 小贩，商贩： one that sells or vends</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>We're thinking of making a deal with that other software vendor.   我们在考虑和那个软件供应商的交易。</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
           <t>veneer</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>n. 薄木板，用以贴在家具外面的饰面板： a thin surface layer, as of finely grained wood, glued to abase of inferior material
 vt. 粉饰（不好的东西）： to cover over with a veneer; especially to conceal (as a defect of character)under a superficial and deceptive attractiveness</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>venerate</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>vt. 尊敬： to regard with reverential respect or with admiring deference</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>She is venerated by the public as a saint.   她被当作圣人，受万众景仰。</t>
-        </is>
-      </c>
+      <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3793,17 +3805,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>venial</t>
+          <t>venerate</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>adj. 可宽恕的： easily excused or forgiven</t>
+          <t>vt. 尊敬： to regard with reverential respect or with admiring deference</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Taking the restaurant's menu as a souvenir seems like a venial offense.   把餐厅的菜单当成纪念品带走似乎是一个可以宽恕的罪行。</t>
+          <t>She is venerated by the public as a saint.   她被当作圣人，受万众景仰。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3815,22 +3827,44 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>venial</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>adj. 可宽恕的： easily excused or forgiven</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Taking the restaurant's menu as a souvenir seems like a venial offense.   把餐厅的菜单当成纪念品带走似乎是一个可以宽恕的罪行。</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>venom</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>n. 毒液： poisonous matter normally secreted by some animals as snakes, scorpions, or bees
 n. 恶意，恶毒的用心： the desire to cause pain for the satisfaction of doing harm</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>an antidote to snake venom  蛇毒的解药
 She spoke of him with venom in her voice.  她的评论怀揣着恶意。</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
